--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\Templates\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9671C46C-9EE8-4F83-8D98-49A640B312EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465FDB8-C5AC-442B-8A18-68A475C6C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="48">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -73,24 +73,6 @@
     <t>1st Round</t>
   </si>
   <si>
-    <t>1 vs 8</t>
-  </si>
-  <si>
-    <t>2 vs 7</t>
-  </si>
-  <si>
-    <t>3 vs 6</t>
-  </si>
-  <si>
-    <t>4 vs 5</t>
-  </si>
-  <si>
-    <t>1 vs 8 Winner vs 3 vs 6 Winner</t>
-  </si>
-  <si>
-    <t>2 vs 7 Winner vs 4 vs 5 Winner</t>
-  </si>
-  <si>
     <t>2nd Round</t>
   </si>
   <si>
@@ -106,31 +88,88 @@
     <t>Conference Winners</t>
   </si>
   <si>
-    <t>1st Place vs 8th Place</t>
-  </si>
-  <si>
-    <t>3rd Place vs 6th Place</t>
-  </si>
-  <si>
-    <t>4th Place vs 5th Place</t>
-  </si>
-  <si>
-    <t>2nd Place vs 7th Place</t>
-  </si>
-  <si>
     <t>Round 2</t>
   </si>
   <si>
-    <t>1st/8th Place Winner vs 3rd/6th Place Winner</t>
-  </si>
-  <si>
-    <t>2nd/7th Place Winner vs 4th/5th Place Winner</t>
-  </si>
-  <si>
     <t>NHL Finals</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes</t>
+  </si>
+  <si>
+    <t>Florida Panthers</t>
+  </si>
+  <si>
+    <t>Montreal Canadiens</t>
+  </si>
+  <si>
+    <t>New Jersey Devils</t>
+  </si>
+  <si>
+    <t>Ottawa Senators</t>
+  </si>
+  <si>
+    <t>Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs</t>
+  </si>
+  <si>
+    <t>Washington Capitals</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>Dallas Stars</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>Minnesota Wild</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>1 vs 4</t>
+  </si>
+  <si>
+    <t>2 vs 3</t>
+  </si>
+  <si>
+    <t>1 vs 4 Winner vs 2 vs 3 Winner</t>
+  </si>
+  <si>
+    <t>1st Place vs 4th Place</t>
+  </si>
+  <si>
+    <t>2nd Place vs 3rd Place</t>
+  </si>
+  <si>
+    <t>1st/4th Place Winner vs 2nd/3rd Place Winner</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>6*</t>
+  </si>
+  <si>
+    <t>7*</t>
   </si>
 </sst>
 </file>
@@ -384,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,13 +548,43 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,35 +605,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,18 +893,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -871,23 +916,99 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -910,87 +1031,122 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="43"/>
+      <c r="A13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="43"/>
+      <c r="A16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="43"/>
+      <c r="A19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
@@ -1056,17 +1212,31 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{65B733ED-E905-4ECB-B300-CE3F9293197B}">
+      <formula1>$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{CB570C17-010C-4F8A-ABC2-C4F9FB9794D3}">
+      <formula1>$B$2:$B$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{7B11D81C-FC3F-46CB-BC09-BE0206DCB418}">
+      <formula1>$C$2:$C$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{EB0ED61F-2A9C-4FA6-BD7B-7ED0CBBF83D1}">
+      <formula1>$D$2:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1076,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,131 +1294,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="A3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AU3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -1265,20 +1435,20 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="M4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>3</v>
@@ -1299,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>3</v>
@@ -1321,17 +1491,23 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="26">
+        <v>45767</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5"/>
       <c r="M5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>3</v>
@@ -1360,10 +1536,16 @@
       <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="10"/>
+      <c r="AV5" s="26">
+        <v>45766</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="AX5" s="11"/>
-      <c r="AY5" s="10"/>
+      <c r="AY5" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="AZ5" s="11"/>
       <c r="BA5" s="5"/>
     </row>
@@ -1371,10 +1553,16 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="27">
+        <v>45769</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="16"/>
       <c r="M6" s="7">
@@ -1398,10 +1586,16 @@
       <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="12"/>
+      <c r="AV6" s="27">
+        <v>45768</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AX6" s="13"/>
-      <c r="AY6" s="12"/>
+      <c r="AY6" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="16"/>
     </row>
@@ -1409,10 +1603,16 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="27">
+        <v>45771</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16"/>
       <c r="M7" s="8">
@@ -1436,10 +1636,16 @@
       <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="12"/>
+      <c r="AV7" s="27">
+        <v>45771</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AX7" s="13"/>
-      <c r="AY7" s="12"/>
+      <c r="AY7" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="16"/>
     </row>
@@ -1447,15 +1653,21 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="27">
+        <v>45773</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1474,27 +1686,39 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="30"/>
+      <c r="AV8" s="33">
+        <v>45774</v>
+      </c>
+      <c r="AW8" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="AX8" s="31"/>
-      <c r="AY8" s="30"/>
+      <c r="AY8" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="AZ8" s="31"/>
       <c r="BA8" s="32"/>
     </row>
     <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="27">
+        <v>45776</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="16"/>
       <c r="L9" s="12"/>
@@ -1508,7 +1732,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="16"/>
       <c r="AI9" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AJ9" s="27"/>
       <c r="AK9" s="12"/>
@@ -1520,28 +1744,40 @@
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
       <c r="AU9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="AV9" s="27">
+        <v>45777</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AX9" s="13"/>
-      <c r="AY9" s="12"/>
+      <c r="AY9" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="32"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="27">
+        <v>45778</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="16"/>
       <c r="L10" s="12"/>
       <c r="M10" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="12"/>
@@ -1550,7 +1786,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="16"/>
       <c r="AI10" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AJ10" s="27"/>
       <c r="AK10" s="12"/>
@@ -1560,28 +1796,40 @@
       <c r="AO10" s="16"/>
       <c r="AQ10" s="12"/>
       <c r="AU10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="AV10" s="27">
+        <v>45779</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AX10" s="13"/>
-      <c r="AY10" s="12"/>
+      <c r="AY10" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="16"/>
     </row>
     <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45780</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="6"/>
       <c r="L11" s="12"/>
       <c r="M11" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="12"/>
@@ -1590,7 +1838,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="16"/>
       <c r="AI11" s="9" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="14"/>
@@ -1600,28 +1848,34 @@
       <c r="AO11" s="6"/>
       <c r="AQ11" s="12"/>
       <c r="AU11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="AV11" s="28">
+        <v>45781</v>
+      </c>
+      <c r="AW11" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="AX11" s="15"/>
-      <c r="AY11" s="14"/>
+      <c r="AY11" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="AZ11" s="15"/>
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="8" t="s">
-        <v>12</v>
+      <c r="M12" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="12"/>
@@ -1629,72 +1883,72 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="A14" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AU14" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -1719,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AW15" s="3" t="s">
         <v>3</v>
@@ -1741,10 +1995,16 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="26">
+        <v>45769</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="5"/>
       <c r="L16" s="12"/>
@@ -1754,10 +2014,16 @@
       <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="10"/>
+      <c r="AV16" s="26">
+        <v>45766</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="AX16" s="11"/>
-      <c r="AY16" s="10"/>
+      <c r="AY16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ16" s="11"/>
       <c r="BA16" s="5"/>
     </row>
@@ -1765,10 +2031,16 @@
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="27">
+        <v>45771</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="16"/>
       <c r="L17" s="12"/>
@@ -1778,10 +2050,16 @@
       <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="12"/>
+      <c r="AV17" s="27">
+        <v>45768</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AX17" s="13"/>
-      <c r="AY17" s="12"/>
+      <c r="AY17" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ17" s="13"/>
       <c r="BA17" s="16"/>
     </row>
@@ -1789,10 +2067,16 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="27">
+        <v>45773</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
       <c r="L18" s="12"/>
@@ -1802,10 +2086,16 @@
       <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="12"/>
+      <c r="AV18" s="27">
+        <v>45770</v>
+      </c>
+      <c r="AW18" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AX18" s="13"/>
-      <c r="AY18" s="12"/>
+      <c r="AY18" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ18" s="13"/>
       <c r="BA18" s="16"/>
     </row>
@@ -1813,151 +2103,199 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="33">
+        <v>45775</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="30"/>
+      <c r="AV19" s="33">
+        <v>45773</v>
+      </c>
+      <c r="AW19" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="AX19" s="31"/>
-      <c r="AY19" s="30"/>
+      <c r="AY19" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ19" s="31"/>
       <c r="BA19" s="32"/>
     </row>
     <row r="20" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="27">
+        <v>45777</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="16"/>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AU20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="AV20" s="27">
+        <v>45775</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AX20" s="13"/>
-      <c r="AY20" s="12"/>
+      <c r="AY20" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ20" s="13"/>
       <c r="BA20" s="16"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="27">
+        <v>45779</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="16"/>
       <c r="O21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AU21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="AV21" s="27">
+        <v>45778</v>
+      </c>
+      <c r="AW21" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AX21" s="13"/>
-      <c r="AY21" s="12"/>
+      <c r="AY21" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="16"/>
     </row>
     <row r="22" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="B22" s="28">
+        <v>45781</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="6"/>
       <c r="O22" s="12"/>
       <c r="AN22" s="12"/>
       <c r="AU22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="AV22" s="28">
+        <v>45780</v>
+      </c>
+      <c r="AW22" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="AX22" s="15"/>
-      <c r="AY22" s="14"/>
+      <c r="AY22" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ22" s="15"/>
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="A25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AU25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>3</v>
@@ -1974,29 +2312,29 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="AV26" s="20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AW26" s="20" t="s">
         <v>3</v>
@@ -2018,10 +2356,16 @@
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="26">
+        <v>45768</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
       <c r="O27" s="12"/>
@@ -2031,10 +2375,16 @@
       <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="10"/>
+      <c r="AV27" s="26">
+        <v>45767</v>
+      </c>
+      <c r="AW27" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="AX27" s="11"/>
-      <c r="AY27" s="10"/>
+      <c r="AY27" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="AZ27" s="11"/>
       <c r="BA27" s="5"/>
     </row>
@@ -2042,41 +2392,53 @@
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="27">
+        <v>45770</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="P28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AF28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="12"/>
+      <c r="AV28" s="27">
+        <v>45769</v>
+      </c>
+      <c r="AW28" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AX28" s="13"/>
-      <c r="AY28" s="12"/>
+      <c r="AY28" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="AZ28" s="13"/>
       <c r="BA28" s="16"/>
     </row>
@@ -2084,10 +2446,16 @@
       <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="27">
+        <v>45772</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="16"/>
       <c r="O29" s="12"/>
@@ -2095,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R29" s="22" t="s">
         <v>3</v>
@@ -2118,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AH29" s="3" t="s">
         <v>3</v>
@@ -2139,10 +2507,16 @@
       <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="12"/>
+      <c r="AV29" s="27">
+        <v>45771</v>
+      </c>
+      <c r="AW29" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="AX29" s="13"/>
-      <c r="AY29" s="12"/>
+      <c r="AY29" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AZ29" s="13"/>
       <c r="BA29" s="16"/>
     </row>
@@ -2150,15 +2524,21 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="33">
+        <v>45774</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="31"/>
-      <c r="E30" s="30"/>
+      <c r="E30" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2181,27 +2561,39 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="30"/>
+      <c r="AV30" s="33">
+        <v>45773</v>
+      </c>
+      <c r="AW30" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="AX30" s="31"/>
-      <c r="AY30" s="30"/>
+      <c r="AY30" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="AZ30" s="31"/>
       <c r="BA30" s="32"/>
     </row>
     <row r="31" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B31" s="27">
+        <v>45777</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="13"/>
       <c r="G31" s="32"/>
       <c r="L31" s="12"/>
@@ -2231,23 +2623,35 @@
       <c r="AR31" s="17"/>
       <c r="AS31" s="17"/>
       <c r="AU31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="AV31" s="27">
+        <v>45776</v>
+      </c>
+      <c r="AW31" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AX31" s="13"/>
-      <c r="AY31" s="12"/>
+      <c r="AY31" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="AZ31" s="13"/>
       <c r="BA31" s="16"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="27">
+        <v>45779</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="16"/>
       <c r="L32" s="12"/>
@@ -2275,23 +2679,35 @@
       <c r="AN32" s="12"/>
       <c r="AQ32" s="12"/>
       <c r="AU32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV32" s="27"/>
-      <c r="AW32" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="AV32" s="27">
+        <v>45778</v>
+      </c>
+      <c r="AW32" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="AX32" s="13"/>
-      <c r="AY32" s="12"/>
+      <c r="AY32" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AZ32" s="13"/>
       <c r="BA32" s="16"/>
     </row>
     <row r="33" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="B33" s="28">
+        <v>45781</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="6"/>
       <c r="L33" s="12"/>
@@ -2319,29 +2735,35 @@
       <c r="AN33" s="12"/>
       <c r="AQ33" s="12"/>
       <c r="AU33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="AV33" s="28">
+        <v>45780</v>
+      </c>
+      <c r="AW33" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="AX33" s="15"/>
-      <c r="AY33" s="14"/>
+      <c r="AY33" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AZ33" s="15"/>
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="12"/>
@@ -2352,7 +2774,7 @@
       <c r="X34" s="12"/>
       <c r="AD34" s="13"/>
       <c r="AF34" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AG34" s="27"/>
       <c r="AH34" s="12"/>
@@ -2362,21 +2784,21 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="12"/>
@@ -2387,7 +2809,7 @@
       <c r="X35" s="12"/>
       <c r="AD35" s="13"/>
       <c r="AF35" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AG35" s="27"/>
       <c r="AH35" s="12"/>
@@ -2399,21 +2821,21 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="A36" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="8" t="s">
-        <v>12</v>
+      <c r="P36" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="12"/>
@@ -2424,7 +2846,7 @@
       <c r="X36" s="12"/>
       <c r="AD36" s="13"/>
       <c r="AF36" s="9" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AG36" s="34"/>
       <c r="AH36" s="35"/>
@@ -2432,26 +2854,26 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AU36" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>3</v>
@@ -2469,37 +2891,37 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV37" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AW37" s="3" t="s">
         <v>3</v>
@@ -2521,10 +2943,16 @@
       <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="26">
+        <v>45767</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="5"/>
       <c r="L38" s="12"/>
@@ -2532,10 +2960,16 @@
       <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="10"/>
+      <c r="AV38" s="26">
+        <v>45768</v>
+      </c>
+      <c r="AW38" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="AX38" s="11"/>
-      <c r="AY38" s="10"/>
+      <c r="AY38" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="AZ38" s="11"/>
       <c r="BA38" s="5"/>
     </row>
@@ -2543,48 +2977,60 @@
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="27">
+        <v>45769</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="M39" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="57"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV39" s="27"/>
-      <c r="AW39" s="12"/>
+      <c r="AV39" s="27">
+        <v>45770</v>
+      </c>
+      <c r="AW39" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="AX39" s="13"/>
-      <c r="AY39" s="12"/>
+      <c r="AY39" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AZ39" s="13"/>
       <c r="BA39" s="16"/>
     </row>
@@ -2592,10 +3038,16 @@
       <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="27">
+        <v>45772</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="F40" s="13"/>
       <c r="G40" s="16"/>
       <c r="L40" s="12"/>
@@ -2603,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O40" s="22" t="s">
         <v>3</v>
@@ -2624,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>3</v>
@@ -2645,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AK40" s="3" t="s">
         <v>3</v>
@@ -2666,10 +3118,16 @@
       <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AV40" s="27"/>
-      <c r="AW40" s="12"/>
+      <c r="AV40" s="27">
+        <v>45772</v>
+      </c>
+      <c r="AW40" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AX40" s="13"/>
-      <c r="AY40" s="12"/>
+      <c r="AY40" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="AZ40" s="13"/>
       <c r="BA40" s="16"/>
     </row>
@@ -2677,15 +3135,21 @@
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="33">
+        <v>45774</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="D41" s="31"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -2714,27 +3178,39 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="33"/>
-      <c r="AW41" s="30"/>
+      <c r="AV41" s="33">
+        <v>45774</v>
+      </c>
+      <c r="AW41" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="AX41" s="31"/>
-      <c r="AY41" s="30"/>
+      <c r="AY41" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="AZ41" s="31"/>
       <c r="BA41" s="32"/>
     </row>
     <row r="42" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="27">
+        <v>45776</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F42" s="13"/>
       <c r="G42" s="16"/>
       <c r="M42" s="8">
@@ -2765,23 +3241,35 @@
       <c r="AN42" s="13"/>
       <c r="AO42" s="16"/>
       <c r="AU42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV42" s="27"/>
-      <c r="AW42" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="AV42" s="27">
+        <v>45776</v>
+      </c>
+      <c r="AW42" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="AX42" s="13"/>
-      <c r="AY42" s="12"/>
+      <c r="AY42" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AZ42" s="13"/>
       <c r="BA42" s="16"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B43" s="27">
+        <v>45779</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="F43" s="13"/>
       <c r="G43" s="16"/>
       <c r="M43" s="8">
@@ -2812,23 +3300,35 @@
       <c r="AN43" s="13"/>
       <c r="AO43" s="16"/>
       <c r="AU43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV43" s="27"/>
-      <c r="AW43" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="AV43" s="27">
+        <v>45778</v>
+      </c>
+      <c r="AW43" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="AX43" s="13"/>
-      <c r="AY43" s="12"/>
+      <c r="AY43" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="AZ43" s="13"/>
       <c r="BA43" s="32"/>
     </row>
     <row r="44" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="28">
+        <v>45781</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F44" s="15"/>
       <c r="G44" s="6"/>
       <c r="M44" s="8">
@@ -2859,27 +3359,33 @@
       <c r="AN44" s="13"/>
       <c r="AO44" s="16"/>
       <c r="AU44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="AV44" s="28">
+        <v>45780</v>
+      </c>
+      <c r="AW44" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="AX44" s="15"/>
-      <c r="AY44" s="14"/>
+      <c r="AY44" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="AZ44" s="15"/>
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N45" s="33"/>
       <c r="O45" s="12"/>
@@ -2897,7 +3403,7 @@
       <c r="AC45" s="13"/>
       <c r="AD45" s="16"/>
       <c r="AI45" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AJ45" s="27"/>
       <c r="AK45" s="12"/>
@@ -2905,19 +3411,19 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N46" s="33"/>
       <c r="O46" s="12"/>
@@ -2935,7 +3441,7 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="16"/>
       <c r="AI46" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AJ46" s="27"/>
       <c r="AK46" s="12"/>
@@ -2945,8 +3451,8 @@
       <c r="AO46" s="16"/>
     </row>
     <row r="47" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M47" s="8" t="s">
-        <v>12</v>
+      <c r="M47" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N47" s="34"/>
       <c r="O47" s="12"/>
@@ -2964,7 +3470,7 @@
       <c r="AC47" s="15"/>
       <c r="AD47" s="6"/>
       <c r="AI47" s="9" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AJ47" s="28"/>
       <c r="AK47" s="14"/>
@@ -2974,49 +3480,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3033,30 +3551,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3067,25 +3573,25 @@
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
+          <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
+          <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
+          <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
+          <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
@@ -3121,25 +3627,25 @@
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
+          <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
+          <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
-          <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
+          <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
+          <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465FDB8-C5AC-442B-8A18-68A475C6C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9657968-F933-4741-AC27-4A83E6E09898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="50">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>7*</t>
+  </si>
+  <si>
+    <t>Jets Lead 1-0</t>
+  </si>
+  <si>
+    <t>Avalanche Lead 1-0</t>
   </si>
 </sst>
 </file>
@@ -557,6 +563,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,6 +574,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,12 +615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1085,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="44"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="44"/>
@@ -1246,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AX17" sqref="AX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,124 +1300,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="55" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1435,15 +1441,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1542,12 +1548,18 @@
       <c r="AW5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="11">
+        <v>3</v>
+      </c>
       <c r="AY5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="5"/>
+      <c r="AZ5" s="11">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -1665,9 +1677,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1686,9 +1698,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1864,15 +1876,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1883,65 +1895,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="62" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2020,12 +2032,18 @@
       <c r="AW16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="11">
+        <v>5</v>
+      </c>
       <c r="AY16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="5"/>
+      <c r="AZ16" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2115,15 +2133,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2243,52 +2261,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2312,24 +2330,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2405,26 +2423,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2536,9 +2554,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2561,9 +2579,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2751,15 +2769,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2784,15 +2802,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2821,18 +2839,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2854,19 +2872,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="62" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="62"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2891,31 +2909,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -2990,33 +3008,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="55" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="57"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3147,9 +3165,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3178,9 +3196,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3375,15 +3393,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3411,15 +3429,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3480,33 +3498,33 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9657968-F933-4741-AC27-4A83E6E09898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DDFAEF-9050-476E-AC80-B5A4ED0E7C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="51">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Avalanche Lead 1-0</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 1-0</t>
   </si>
 </sst>
 </file>
@@ -554,30 +557,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,33 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,18 +1004,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1041,18 +1044,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1081,14 +1084,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1111,10 +1114,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1133,10 +1136,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1218,16 +1221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{65B733ED-E905-4ECB-B300-CE3F9293197B}">
@@ -1252,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AX17" sqref="AX17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,124 +1303,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1441,15 +1444,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1677,9 +1680,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1698,9 +1701,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1876,15 +1879,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1895,65 +1898,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2133,15 +2136,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2261,52 +2264,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2330,24 +2333,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2423,26 +2426,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2554,9 +2557,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2579,9 +2582,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2769,15 +2772,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2802,15 +2805,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2839,18 +2842,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2872,19 +2875,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2909,31 +2912,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -2967,12 +2970,18 @@
       <c r="C38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="11">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="L38" s="12"/>
       <c r="AQ38" s="12"/>
       <c r="AU38" s="7">
@@ -3008,33 +3017,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3165,9 +3174,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3196,9 +3205,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3393,15 +3402,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3429,15 +3438,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3498,45 +3507,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3553,34 +3582,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DDFAEF-9050-476E-AC80-B5A4ED0E7C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD24B0-F723-4C33-ACDB-1F1DF6C395FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="52">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Hurricanes Lead 1-0</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 1-0</t>
   </si>
 </sst>
 </file>
@@ -557,16 +560,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,39 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,18 +1007,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1044,18 +1047,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1084,14 +1087,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1114,10 +1117,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1136,10 +1139,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1221,16 +1224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{65B733ED-E905-4ECB-B300-CE3F9293197B}">
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,124 +1306,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1444,15 +1447,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1506,12 +1509,18 @@
       <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="M5" s="22" t="s">
         <v>2</v>
       </c>
@@ -1680,9 +1689,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1701,9 +1710,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1879,15 +1888,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1898,65 +1907,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2136,15 +2145,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2264,52 +2273,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2333,24 +2342,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2426,26 +2435,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2557,9 +2566,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2582,9 +2591,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2772,15 +2781,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2805,15 +2814,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2842,18 +2851,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2875,19 +2884,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2912,31 +2921,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3017,33 +3026,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3174,9 +3183,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3205,9 +3214,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3402,15 +3411,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3438,15 +3447,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3507,49 +3516,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3566,30 +3587,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD24B0-F723-4C33-ACDB-1F1DF6C395FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="53">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -182,12 +181,15 @@
   </si>
   <si>
     <t>Maple Leafs Lead 1-0</t>
+  </si>
+  <si>
+    <t>Golden Knights Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -560,30 +562,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,33 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1007,18 +1009,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1047,18 +1049,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1087,14 +1089,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1117,10 +1119,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1139,10 +1141,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1224,28 +1226,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{65B733ED-E905-4ECB-B300-CE3F9293197B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{CB570C17-010C-4F8A-ABC2-C4F9FB9794D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{7B11D81C-FC3F-46CB-BC09-BE0206DCB418}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{EB0ED61F-2A9C-4FA6-BD7B-7ED0CBBF83D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1255,11 +1257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="AK16" workbookViewId="0">
+      <selection activeCell="BB27" sqref="BB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,124 +1308,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1447,15 +1449,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1689,9 +1691,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1710,9 +1712,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1888,15 +1890,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1907,65 +1909,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2145,15 +2147,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2273,52 +2275,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2342,24 +2344,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2411,12 +2413,18 @@
       <c r="AW27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AX27" s="11"/>
+      <c r="AX27" s="11">
+        <v>2</v>
+      </c>
       <c r="AY27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="5"/>
+      <c r="AZ27" s="11">
+        <v>4</v>
+      </c>
+      <c r="BA27" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -2435,26 +2443,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2566,9 +2574,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2591,9 +2599,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2781,15 +2789,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2814,15 +2822,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2851,18 +2859,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2884,19 +2892,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2921,31 +2929,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3026,33 +3034,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3183,9 +3191,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3214,9 +3222,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3411,15 +3419,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3447,15 +3455,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3516,45 +3524,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3571,125 +3599,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E30E0B-9B5D-45A7-9C4F-2F23D32F12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="56">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -184,12 +185,21 @@
   </si>
   <si>
     <t>Golden Knights Lead 1-0</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Capitals Lead 1-0</t>
+  </si>
+  <si>
+    <t>Jets Lead 2-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -562,16 +572,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,39 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,18 +1019,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1049,18 +1059,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,14 +1099,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1119,10 +1129,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1141,10 +1151,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1226,28 +1236,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1257,11 +1267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK16" workbookViewId="0">
-      <selection activeCell="BB27" sqref="BB27"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,124 +1318,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1449,15 +1459,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1618,12 +1628,18 @@
       <c r="AW6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="13">
+        <v>1</v>
+      </c>
       <c r="AY6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="16"/>
+      <c r="AZ6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1691,9 +1707,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1712,9 +1728,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1890,15 +1906,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1909,65 +1925,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2147,15 +2163,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2275,52 +2291,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2344,24 +2360,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2394,12 +2410,21 @@
       <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="11">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O27" s="12"/>
       <c r="X27" s="12"/>
       <c r="AD27" s="13"/>
@@ -2443,26 +2468,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2574,9 +2599,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2599,9 +2624,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2789,15 +2814,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2822,15 +2847,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2859,18 +2884,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2892,19 +2917,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2929,31 +2954,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3034,33 +3059,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3191,9 +3216,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3222,9 +3247,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3419,15 +3444,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3455,15 +3480,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3524,49 +3549,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3583,121 +3620,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E30E0B-9B5D-45A7-9C4F-2F23D32F12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="58">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -194,12 +193,18 @@
   </si>
   <si>
     <t>Jets Lead 2-0</t>
+  </si>
+  <si>
+    <t>Series Tied 1-1</t>
+  </si>
+  <si>
+    <t>Kings Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -572,30 +577,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,33 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1019,18 +1024,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1059,18 +1064,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1099,14 +1104,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1129,10 +1134,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1151,10 +1156,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1236,28 +1241,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1267,11 +1272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BA7" sqref="BA7"/>
+    <sheetView tabSelected="1" topLeftCell="AK13" workbookViewId="0">
+      <selection activeCell="AX39" sqref="AX39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,124 +1323,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1459,15 +1464,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1707,9 +1712,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1728,9 +1733,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1906,15 +1911,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1925,65 +1930,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2104,12 +2109,18 @@
       <c r="AW17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="13">
+        <v>3</v>
+      </c>
       <c r="AY17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="16"/>
+      <c r="AZ17" s="13">
+        <v>4</v>
+      </c>
+      <c r="BA17" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -2163,15 +2174,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2291,52 +2302,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2360,24 +2371,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2468,26 +2479,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2599,9 +2610,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2624,9 +2635,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2814,15 +2825,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2847,15 +2858,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2884,18 +2895,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2917,19 +2928,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2954,31 +2965,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3035,12 +3046,18 @@
       <c r="AW38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AX38" s="11"/>
+      <c r="AX38" s="11">
+        <v>5</v>
+      </c>
       <c r="AY38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="5"/>
+      <c r="AZ38" s="11">
+        <v>6</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -3059,33 +3076,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3216,9 +3233,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3247,9 +3264,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3444,15 +3461,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3480,15 +3497,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3549,45 +3566,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3604,125 +3641,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2CA5E-22EE-4787-9007-F8F23F2F0172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="61">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -199,12 +200,21 @@
   </si>
   <si>
     <t>Kings Lead 1-0</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 2-0</t>
+  </si>
+  <si>
+    <t>Panthers Lead 1-0</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 2-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -577,16 +587,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,39 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1024,18 +1034,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1064,18 +1074,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,14 +1114,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1134,10 +1144,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1156,10 +1166,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1241,28 +1251,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1272,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK13" workbookViewId="0">
-      <selection activeCell="AX39" sqref="AX39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,124 +1333,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1464,15 +1474,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1600,12 +1610,21 @@
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="13">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
@@ -1712,9 +1731,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1733,9 +1752,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1911,15 +1930,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1930,65 +1949,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2048,12 +2067,18 @@
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>6</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="O16" s="12"/>
       <c r="AN16" s="12"/>
@@ -2174,15 +2199,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2302,52 +2327,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2371,24 +2396,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2479,26 +2504,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2610,9 +2635,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2635,9 +2660,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2825,15 +2850,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2858,15 +2883,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2895,18 +2920,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2928,19 +2953,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2965,31 +2990,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3069,40 +3094,46 @@
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
       <c r="E39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="13">
+        <v>3</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3233,9 +3264,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3264,9 +3295,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3461,15 +3492,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3497,15 +3528,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3566,49 +3597,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3625,121 +3668,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2CA5E-22EE-4787-9007-F8F23F2F0172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="61">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -214,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -587,30 +586,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,33 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1034,18 +1033,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1074,18 +1073,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1114,14 +1113,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1144,10 +1143,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1166,10 +1165,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1251,28 +1250,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1282,11 +1281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="AK10" workbookViewId="0">
+      <selection activeCell="AX29" sqref="AX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,124 +1332,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1474,15 +1473,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1731,9 +1730,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1752,9 +1751,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1930,15 +1929,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1949,65 +1948,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2199,15 +2198,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2327,52 +2326,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2396,24 +2395,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2504,26 +2503,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2534,12 +2533,18 @@
       <c r="AW28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AX28" s="13"/>
+      <c r="AX28" s="13">
+        <v>5</v>
+      </c>
       <c r="AY28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="16"/>
+      <c r="AZ28" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA28" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -2635,9 +2640,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2660,9 +2665,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2850,15 +2855,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2883,15 +2888,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2920,18 +2925,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2953,19 +2958,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2990,31 +2995,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3107,33 +3112,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3264,9 +3269,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3295,9 +3300,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3492,15 +3497,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3528,15 +3533,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3597,45 +3602,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3652,125 +3677,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="64">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Hurricanes Lead 2-0</t>
+  </si>
+  <si>
+    <t>Stars Lead 2-1</t>
+  </si>
+  <si>
+    <t>Kings Lead 2-0</t>
+  </si>
+  <si>
+    <t>Capitals Lead 2-0</t>
   </si>
 </sst>
 </file>
@@ -586,16 +595,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,39 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,18 +1042,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1073,18 +1082,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1113,14 +1122,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1143,10 +1152,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1165,10 +1174,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1250,16 +1259,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
@@ -1282,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA49"/>
+  <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK10" workbookViewId="0">
-      <selection activeCell="AX29" sqref="AX29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,124 +1341,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1473,15 +1482,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1730,9 +1739,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1751,9 +1760,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1929,15 +1938,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1948,65 +1957,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2104,7 +2113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -2175,14 +2184,23 @@
       <c r="AW18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="13">
+        <v>2</v>
+      </c>
       <c r="AY18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="16"/>
-    </row>
-    <row r="19" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AZ18" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -2198,15 +2216,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2223,7 +2241,7 @@
       <c r="AZ19" s="31"/>
       <c r="BA19" s="32"/>
     </row>
-    <row r="20" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2275,7 @@
       <c r="AZ20" s="13"/>
       <c r="BA20" s="16"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2309,7 @@
       <c r="AZ21" s="13"/>
       <c r="BA21" s="16"/>
     </row>
-    <row r="22" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
@@ -2325,55 +2343,55 @@
       <c r="AZ22" s="15"/>
       <c r="BA22" s="6"/>
     </row>
-    <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-    </row>
-    <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+    </row>
+    <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
-    <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-    </row>
-    <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
+    </row>
+    <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2395,24 +2413,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
@@ -2496,33 +2514,39 @@
       <c r="C28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="13">
+        <v>3</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2546,7 +2570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -2624,7 +2648,7 @@
       <c r="AZ29" s="13"/>
       <c r="BA29" s="16"/>
     </row>
-    <row r="30" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>4</v>
       </c>
@@ -2640,9 +2664,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2665,9 +2689,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2684,7 +2708,7 @@
       <c r="AZ30" s="31"/>
       <c r="BA30" s="32"/>
     </row>
-    <row r="31" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
@@ -2742,7 +2766,7 @@
       <c r="AZ31" s="13"/>
       <c r="BA31" s="16"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -2855,15 +2879,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2888,15 +2912,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2925,18 +2949,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2958,19 +2982,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2995,31 +3019,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3112,33 +3136,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3149,12 +3173,18 @@
       <c r="AW39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="13"/>
+      <c r="AX39" s="13">
+        <v>2</v>
+      </c>
       <c r="AY39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="16"/>
+      <c r="AZ39" s="13">
+        <v>6</v>
+      </c>
+      <c r="BA39" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -3269,9 +3299,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3300,9 +3330,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3497,15 +3527,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3533,15 +3563,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3602,49 +3632,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3661,30 +3703,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Capitals Lead 2-0</t>
+  </si>
+  <si>
+    <t>Panthers Lead 2-0</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 3-0</t>
+  </si>
+  <si>
+    <t>Wild Lead 2-1</t>
+  </si>
+  <si>
+    <t>Jets Lead 2-1</t>
   </si>
 </sst>
 </file>
@@ -595,30 +607,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,33 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,18 +1054,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1082,18 +1094,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,14 +1134,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1152,10 +1164,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1174,10 +1186,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1259,16 +1271,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
@@ -1293,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,124 +1353,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1482,15 +1494,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1683,12 +1695,18 @@
       <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="M7" s="8">
         <v>2</v>
       </c>
@@ -1716,12 +1734,18 @@
       <c r="AW7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="13">
+        <v>2</v>
+      </c>
       <c r="AY7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="16"/>
+      <c r="AZ7" s="13">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
@@ -1739,9 +1763,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1760,9 +1784,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1938,15 +1962,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1957,65 +1981,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2123,12 +2147,18 @@
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="O17" s="12"/>
       <c r="AN17" s="12"/>
@@ -2216,15 +2246,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2344,52 +2374,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2413,24 +2443,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2527,26 +2557,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2641,12 +2671,18 @@
       <c r="AW29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AX29" s="13"/>
+      <c r="AX29" s="13">
+        <v>2</v>
+      </c>
       <c r="AY29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="16"/>
+      <c r="AZ29" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -2664,9 +2700,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2689,9 +2725,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2879,15 +2915,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2912,15 +2948,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2949,18 +2985,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -2982,19 +3018,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3019,31 +3055,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3136,33 +3172,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3299,9 +3335,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3330,9 +3366,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3527,15 +3563,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3563,15 +3599,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3632,45 +3668,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3687,34 +3743,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DAF1C-11FC-41B6-92D3-6E72A9EBF5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="71">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -229,12 +230,21 @@
   </si>
   <si>
     <t>Jets Lead 2-1</t>
+  </si>
+  <si>
+    <t>Kings Lead 2-1</t>
+  </si>
+  <si>
+    <t>Capitals Lead 2-1</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -607,16 +617,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,39 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,18 +1064,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1094,18 +1104,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1134,14 +1144,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1164,10 +1174,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1186,10 +1196,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1271,28 +1281,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1302,11 +1312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,124 +1363,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1494,15 +1504,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1763,9 +1773,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1784,9 +1794,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1962,15 +1972,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -1981,65 +1991,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2246,15 +2256,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2374,52 +2384,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2443,24 +2453,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2557,26 +2567,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2610,12 +2620,18 @@
       <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13">
+        <v>3</v>
+      </c>
       <c r="E29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="13">
+        <v>6</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="O29" s="12"/>
       <c r="P29" s="22" t="s">
         <v>2</v>
@@ -2700,9 +2716,9 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2725,9 +2741,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2915,15 +2931,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2948,15 +2964,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2985,18 +3001,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -3018,19 +3034,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3055,31 +3071,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3172,33 +3188,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3232,12 +3248,18 @@
       <c r="C40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
       <c r="E40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="13">
+        <v>3</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="L40" s="12"/>
       <c r="M40" s="22" t="s">
         <v>2</v>
@@ -3312,12 +3334,18 @@
       <c r="AW40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AX40" s="13"/>
+      <c r="AX40" s="13">
+        <v>4</v>
+      </c>
       <c r="AY40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="16"/>
+      <c r="AZ40" s="13">
+        <v>7</v>
+      </c>
+      <c r="BA40" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
@@ -3335,9 +3363,9 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3366,9 +3394,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3563,15 +3591,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3599,15 +3627,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3668,49 +3696,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3727,121 +3767,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8DAF1C-11FC-41B6-92D3-6E72A9EBF5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D3994-42FF-4BD4-BAB8-7544ABCC2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="74">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>Hurricanes Lead 2-1</t>
+  </si>
+  <si>
+    <t>Panthers Lead 2-1</t>
+  </si>
+  <si>
+    <t>Series Tied 2-2</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 3-1</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
+      <selection activeCell="BA20" sqref="BA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,12 +1776,21 @@
       <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="13">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
@@ -2205,12 +2223,18 @@
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>5</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
       <c r="AN18" s="12"/>
@@ -2274,12 +2298,18 @@
       <c r="AW19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AX19" s="31"/>
+      <c r="AX19" s="31">
+        <v>0</v>
+      </c>
       <c r="AY19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="32"/>
+      <c r="AZ19" s="31">
+        <v>4</v>
+      </c>
+      <c r="BA19" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2753,12 +2783,21 @@
       <c r="AW30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AX30" s="31"/>
+      <c r="AX30" s="31">
+        <v>4</v>
+      </c>
       <c r="AY30" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="32"/>
+      <c r="AZ30" s="31">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB30" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D3994-42FF-4BD4-BAB8-7544ABCC2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176818F-8026-4F23-B8F1-6585CA2D630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="76">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Maple Leafs Lead 3-1</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 3-1</t>
+  </si>
+  <si>
+    <t>Capitals Lead 3-1</t>
   </si>
 </sst>
 </file>
@@ -626,30 +632,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,33 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,18 +1079,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1113,18 +1119,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,14 +1159,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1183,10 +1189,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1205,10 +1211,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1290,16 +1296,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1324,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
-      <selection activeCell="BA20" sqref="BA20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,124 +1378,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="M2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="AI2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="AI3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1513,15 +1519,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1791,9 +1797,9 @@
       <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1812,9 +1818,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1824,12 +1830,18 @@
       <c r="AW8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AX8" s="31"/>
+      <c r="AX8" s="31">
+        <v>1</v>
+      </c>
       <c r="AY8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
+      <c r="AZ8" s="31">
+        <v>5</v>
+      </c>
+      <c r="BA8" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1990,15 +2002,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -2009,65 +2021,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2280,15 +2292,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2414,52 +2426,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2483,24 +2495,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="62"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2597,26 +2609,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2740,15 +2752,21 @@
       <c r="C30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="31">
+        <v>5</v>
+      </c>
       <c r="E30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="F30" s="31">
+        <v>2</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2771,9 +2789,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2970,15 +2988,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3003,15 +3021,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3040,18 +3058,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -3073,19 +3091,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="54"/>
+      <c r="AP36" s="54"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3110,31 +3128,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="51"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="62"/>
+      <c r="AF37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3227,33 +3245,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="X39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AI39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3396,15 +3414,21 @@
       <c r="C41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="31">
+        <v>5</v>
+      </c>
       <c r="E41" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="F41" s="31">
+        <v>2</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3433,9 +3457,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3630,15 +3654,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3666,15 +3690,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+      <c r="AX45" s="53"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="53"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3735,45 +3759,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="X48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AI48" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3790,34 +3834,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176818F-8026-4F23-B8F1-6585CA2D630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="76">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -259,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -507,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,16 +631,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,38 +694,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1079,18 +1081,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1119,18 +1121,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1159,14 +1161,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1189,10 +1191,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1211,10 +1213,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1296,28 +1298,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1327,11 +1329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="AK16" workbookViewId="0">
+      <selection activeCell="BB41" sqref="BB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,124 +1380,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="M2" s="59" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="AI2" s="59" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="AI2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="AI3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AU3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1519,15 +1521,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1797,9 +1799,9 @@
       <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1818,9 +1820,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2002,15 +2004,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -2021,65 +2023,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AI12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="53" t="s">
+      <c r="AU12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="59"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2292,15 +2294,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2426,52 +2428,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="53" t="s">
+      <c r="AU23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="53" t="s">
+      <c r="AU25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="46"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2495,24 +2497,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="62"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="53"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2609,26 +2611,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="46" t="s">
+      <c r="P28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="48"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="53" t="s">
+      <c r="AF28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2764,9 +2766,9 @@
       <c r="G30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2789,9 +2791,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2813,7 +2815,7 @@
       <c r="BA30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="BB30" s="1" t="s">
+      <c r="BB30" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2931,7 +2933,7 @@
       <c r="AZ32" s="13"/>
       <c r="BA32" s="16"/>
     </row>
-    <row r="33" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>47</v>
       </c>
@@ -2987,16 +2989,16 @@
       <c r="AZ33" s="15"/>
       <c r="BA33" s="6"/>
     </row>
-    <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3021,17 +3023,17 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="53" t="s">
+      <c r="AU34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-    </row>
-    <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+    </row>
+    <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
@@ -3057,19 +3059,19 @@
       <c r="AN35" s="12"/>
       <c r="AQ35" s="12"/>
     </row>
-    <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+    <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -3091,21 +3093,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
-    </row>
-    <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="49"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="49"/>
+      <c r="AZ36" s="49"/>
+      <c r="BA36" s="49"/>
+    </row>
+    <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>2</v>
       </c>
@@ -3128,31 +3130,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="51"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="62"/>
-      <c r="AF37" s="53" t="s">
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="62"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="53"/>
+      <c r="AF37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3176,7 +3178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>2</v>
       </c>
@@ -3245,33 +3247,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="53" t="s">
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
+      <c r="X39" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AI39" s="46" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AI39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="59"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3295,7 +3297,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>4</v>
       </c>
@@ -3426,9 +3428,9 @@
       <c r="G41" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3457,9 +3459,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3469,14 +3471,23 @@
       <c r="AW41" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AX41" s="31"/>
+      <c r="AX41" s="31">
+        <v>3</v>
+      </c>
       <c r="AY41" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="32"/>
-    </row>
-    <row r="42" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AZ41" s="31">
+        <v>4</v>
+      </c>
+      <c r="BA41" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB41" s="63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3546,7 @@
       <c r="AZ42" s="13"/>
       <c r="BA42" s="16"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
@@ -3594,7 +3605,7 @@
       <c r="AZ43" s="13"/>
       <c r="BA43" s="32"/>
     </row>
-    <row r="44" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>47</v>
       </c>
@@ -3653,16 +3664,16 @@
       <c r="AZ44" s="15"/>
       <c r="BA44" s="6"/>
     </row>
-    <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+    <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3690,17 +3701,17 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="53" t="s">
+      <c r="AU45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
-    </row>
-    <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+      <c r="AY45" s="46"/>
+      <c r="AZ45" s="46"/>
+      <c r="BA45" s="46"/>
+    </row>
+    <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>46</v>
       </c>
@@ -3729,7 +3740,7 @@
       <c r="AN46" s="13"/>
       <c r="AO46" s="16"/>
     </row>
-    <row r="47" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M47" s="9" t="s">
         <v>47</v>
       </c>
@@ -3758,50 +3769,62 @@
       <c r="AN47" s="15"/>
       <c r="AO47" s="6"/>
     </row>
-    <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="46" t="s">
+    <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="53" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="59"/>
+      <c r="X48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AI48" s="53" t="s">
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AI48" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3818,121 +3841,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FA1721-4E64-4B31-954A-5F25F8F15ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -253,12 +254,15 @@
   </si>
   <si>
     <t>Capitals Lead 3-1</t>
+  </si>
+  <si>
+    <t>Panthers Lead 3-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -631,30 +635,60 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,36 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,18 +1085,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="44"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="44"/>
@@ -1298,28 +1302,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1329,11 +1333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK16" workbookViewId="0">
-      <selection activeCell="BB41" sqref="BB41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,124 +1384,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
+      <c r="Z1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="56"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="58"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="M2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="AI2" s="50" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="AI2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="62"/>
+      <c r="AU2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="62"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="AI3" s="57" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="AI3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AU3" s="46" t="s">
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="49"/>
+      <c r="AU3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1521,15 +1525,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1799,9 +1803,9 @@
       <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1820,9 +1824,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2004,15 +2008,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -2023,65 +2027,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="46" t="s">
+      <c r="AU12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="49" t="s">
+      <c r="AU14" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2288,21 +2292,27 @@
       <c r="C19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="31">
+        <v>2</v>
+      </c>
       <c r="E19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="F19" s="31">
+        <v>4</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2428,52 +2438,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="46" t="s">
+      <c r="AU23" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BA23" s="54"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="46" t="s">
+      <c r="AU25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
+      <c r="AV25" s="54"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2497,24 +2507,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="53"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="63"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2611,26 +2621,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="49"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="46" t="s">
+      <c r="AF28" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2766,9 +2776,9 @@
       <c r="G30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2791,9 +2801,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2815,7 +2825,7 @@
       <c r="BA30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="BB30" s="63" t="s">
+      <c r="BB30" s="42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2990,15 +3000,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3023,15 +3033,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="46" t="s">
+      <c r="AU34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="46"/>
-      <c r="AW34" s="46"/>
-      <c r="AX34" s="46"/>
-      <c r="AY34" s="46"/>
-      <c r="AZ34" s="46"/>
-      <c r="BA34" s="46"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3060,18 +3070,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -3093,19 +3103,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="49" t="s">
+      <c r="AU36" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3130,31 +3140,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="53"/>
-      <c r="AF37" s="46" t="s">
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="52"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="63"/>
+      <c r="AF37" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="54"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3247,33 +3257,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="59"/>
-      <c r="X39" s="46" t="s">
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+      <c r="X39" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AI39" s="57" t="s">
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AI39" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="59"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="49"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3428,9 +3438,9 @@
       <c r="G41" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3459,9 +3469,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3483,7 +3493,7 @@
       <c r="BA41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="BB41" s="63" t="s">
+      <c r="BB41" s="42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3665,15 +3675,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3701,15 +3711,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="46" t="s">
+      <c r="AU45" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
-      <c r="AY45" s="46"/>
-      <c r="AZ45" s="46"/>
-      <c r="BA45" s="46"/>
+      <c r="AV45" s="54"/>
+      <c r="AW45" s="54"/>
+      <c r="AX45" s="54"/>
+      <c r="AY45" s="54"/>
+      <c r="AZ45" s="54"/>
+      <c r="BA45" s="54"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3770,45 +3780,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="59"/>
-      <c r="X48" s="46" t="s">
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="49"/>
+      <c r="X48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AI48" s="46" t="s">
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AI48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="46"/>
+      <c r="AJ48" s="54"/>
+      <c r="AK48" s="54"/>
+      <c r="AL48" s="54"/>
+      <c r="AM48" s="54"/>
+      <c r="AN48" s="54"/>
+      <c r="AO48" s="54"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3825,125 +3855,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FA1721-4E64-4B31-954A-5F25F8F15ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="78">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -257,12 +256,15 @@
   </si>
   <si>
     <t>Panthers Lead 3-1</t>
+  </si>
+  <si>
+    <t>Stars Lead 3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -638,16 +640,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,39 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1085,18 +1087,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1125,18 +1127,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,14 +1167,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1195,10 +1197,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1217,10 +1219,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1302,28 +1304,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1333,11 +1335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="AK4" workbookViewId="0">
+      <selection activeCell="BA21" sqref="BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,124 +1386,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
-      <c r="Z1" s="56" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="58"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="57"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="M2" s="60" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="M2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="AI2" s="60" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="AI2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="62"/>
-      <c r="AU2" s="60" t="s">
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="53"/>
+      <c r="AU2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="62"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="53"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="AI3" s="47" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="AI3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="49"/>
-      <c r="AU3" s="54" t="s">
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="60"/>
+      <c r="AU3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1525,15 +1527,15 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1803,9 +1805,9 @@
       <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1824,9 +1826,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2008,15 +2010,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>47</v>
@@ -2027,65 +2029,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="54" t="s">
+      <c r="AI12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="54" t="s">
+      <c r="AU12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="53" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2304,15 +2306,15 @@
       <c r="G19" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2362,12 +2364,18 @@
       <c r="AW20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AX20" s="13"/>
+      <c r="AX20" s="13">
+        <v>2</v>
+      </c>
       <c r="AY20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="16"/>
+      <c r="AZ20" s="13">
+        <v>6</v>
+      </c>
+      <c r="BA20" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2438,52 +2446,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="54" t="s">
+      <c r="AU23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="54" t="s">
+      <c r="AU25" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2507,24 +2515,24 @@
       <c r="G26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="59"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="63"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="54"/>
       <c r="AU26" s="20" t="s">
         <v>2</v>
       </c>
@@ -2621,26 +2629,26 @@
         <v>63</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="47" t="s">
+      <c r="P28" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="49"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="60"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="54" t="s">
+      <c r="AF28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2776,9 +2784,9 @@
       <c r="G30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2801,9 +2809,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3000,15 +3008,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3033,15 +3041,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="54" t="s">
+      <c r="AU34" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AV34" s="54"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="54"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="47"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3070,18 +3078,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>47</v>
@@ -3103,19 +3111,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="55"/>
-      <c r="AP36" s="55"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="48"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="53" t="s">
+      <c r="AU36" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BA36" s="53"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3140,31 +3148,31 @@
         <v>9</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="50" t="s">
+      <c r="P37" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="52"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="63"/>
-      <c r="AF37" s="54" t="s">
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="63"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="54"/>
+      <c r="AF37" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>2</v>
@@ -3257,33 +3265,33 @@
         <v>60</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="49"/>
-      <c r="X39" s="54" t="s">
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="60"/>
+      <c r="X39" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AI39" s="47" t="s">
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AI39" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="49"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="60"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3438,9 +3446,9 @@
       <c r="G41" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3469,9 +3477,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="59"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="48"/>
+      <c r="AS41" s="48"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3675,15 +3683,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
       <c r="M45" s="8" t="s">
         <v>45</v>
       </c>
@@ -3711,15 +3719,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="54" t="s">
+      <c r="AU45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
-      <c r="AZ45" s="54"/>
-      <c r="BA45" s="54"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3780,49 +3788,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="47" t="s">
+      <c r="M48" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="49"/>
-      <c r="X48" s="54" t="s">
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="60"/>
+      <c r="X48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AI48" s="54" t="s">
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AI48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AJ48" s="54"/>
-      <c r="AK48" s="54"/>
-      <c r="AL48" s="54"/>
-      <c r="AM48" s="54"/>
-      <c r="AN48" s="54"/>
-      <c r="AO48" s="54"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3839,121 +3859,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F698CF-9DFC-401C-9DA7-C6FFD4F33456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="78">
-  <si>
-    <t>Eastern Conference Playoff Teams</t>
-  </si>
-  <si>
-    <t>Western Conference Playoff Teams</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="80">
   <si>
     <t>Game</t>
   </si>
@@ -259,12 +254,24 @@
   </si>
   <si>
     <t>Stars Lead 3-2</t>
+  </si>
+  <si>
+    <t>Oilers Lead 3-2</t>
+  </si>
+  <si>
+    <t>Golden Knights Lead 3-2</t>
+  </si>
+  <si>
+    <t>Hurricanes Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -512,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,6 +709,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,246 +1017,284 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="45"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+    </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L39" s="2"/>
     </row>
@@ -1254,6 +1308,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
@@ -1261,35 +1316,36 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="L46" s="2"/>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.25">
@@ -1297,35 +1353,30 @@
       <c r="H54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A15 A17:A18 A20:A21 A23:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B17:B18 B20:B21 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1335,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK4" workbookViewId="0">
-      <selection activeCell="BA21" sqref="BA21"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14:AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -1410,12 +1461,12 @@
       <c r="T1" s="56"/>
       <c r="U1" s="57"/>
       <c r="Z1" s="55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="56"/>
       <c r="AB1" s="57"/>
       <c r="AF1" s="55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG1" s="56"/>
       <c r="AH1" s="56"/>
@@ -1441,7 +1492,7 @@
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -1450,7 +1501,7 @@
       <c r="F2" s="52"/>
       <c r="G2" s="53"/>
       <c r="M2" s="51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
@@ -1458,7 +1509,7 @@
       <c r="Q2" s="52"/>
       <c r="R2" s="53"/>
       <c r="AI2" s="51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ2" s="52"/>
       <c r="AK2" s="52"/>
@@ -1467,7 +1518,7 @@
       <c r="AN2" s="52"/>
       <c r="AO2" s="53"/>
       <c r="AU2" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="52"/>
       <c r="AW2" s="52"/>
@@ -1478,7 +1529,7 @@
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -1487,7 +1538,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="AI3" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" s="59"/>
       <c r="AK3" s="59"/>
@@ -1496,7 +1547,7 @@
       <c r="AN3" s="59"/>
       <c r="AO3" s="60"/>
       <c r="AU3" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV3" s="47"/>
       <c r="AW3" s="47"/>
@@ -1507,28 +1558,28 @@
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="M4" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="59"/>
       <c r="O4" s="59"/>
@@ -1537,46 +1588,46 @@
       <c r="R4" s="59"/>
       <c r="S4" s="60"/>
       <c r="AI4" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,40 +1638,40 @@
         <v>45767</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>9</v>
       </c>
       <c r="AI5" s="7">
         <v>1</v>
@@ -1638,19 +1689,19 @@
         <v>45766</v>
       </c>
       <c r="AW5" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX5" s="11">
         <v>3</v>
       </c>
       <c r="AY5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ5" s="11">
         <v>5</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1661,22 +1712,22 @@
         <v>45769</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="13">
         <v>3</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1703,19 +1754,19 @@
         <v>45768</v>
       </c>
       <c r="AW6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX6" s="13">
         <v>1</v>
       </c>
       <c r="AY6" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ6" s="13">
         <v>2</v>
       </c>
       <c r="BA6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
@@ -1726,19 +1777,19 @@
         <v>45771</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7" s="8">
         <v>2</v>
@@ -1765,19 +1816,19 @@
         <v>45771</v>
       </c>
       <c r="AW7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX7" s="13">
         <v>2</v>
       </c>
       <c r="AY7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AZ7" s="13">
         <v>7</v>
       </c>
       <c r="BA7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1788,22 +1839,22 @@
         <v>45773</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13">
         <v>4</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
@@ -1836,37 +1887,43 @@
         <v>45774</v>
       </c>
       <c r="AW8" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX8" s="31">
         <v>1</v>
       </c>
       <c r="AY8" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AZ8" s="31">
         <v>5</v>
       </c>
       <c r="BA8" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="27">
         <v>45776</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="8">
         <v>4</v>
@@ -1878,7 +1935,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="16"/>
       <c r="AI9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AJ9" s="27"/>
       <c r="AK9" s="12"/>
@@ -1890,40 +1947,40 @@
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
       <c r="AU9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AV9" s="27">
         <v>45777</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX9" s="13"/>
       <c r="AY9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="32"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="27">
         <v>45778</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="16"/>
       <c r="L10" s="12"/>
       <c r="M10" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="12"/>
@@ -1932,7 +1989,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="16"/>
       <c r="AI10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ10" s="27"/>
       <c r="AK10" s="12"/>
@@ -1942,40 +1999,40 @@
       <c r="AO10" s="16"/>
       <c r="AQ10" s="12"/>
       <c r="AU10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV10" s="27">
         <v>45779</v>
       </c>
       <c r="AW10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX10" s="13"/>
       <c r="AY10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="16"/>
     </row>
     <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="28">
         <v>45780</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="6"/>
       <c r="L11" s="12"/>
       <c r="M11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="12"/>
@@ -1984,7 +2041,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="16"/>
       <c r="AI11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="14"/>
@@ -1994,24 +2051,24 @@
       <c r="AO11" s="6"/>
       <c r="AQ11" s="12"/>
       <c r="AU11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AV11" s="28">
         <v>45781</v>
       </c>
       <c r="AW11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX11" s="15"/>
       <c r="AY11" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ11" s="15"/>
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2021,7 +2078,7 @@
       <c r="G12" s="47"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="12"/>
@@ -2030,7 +2087,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
       <c r="AI12" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ12" s="47"/>
       <c r="AK12" s="47"/>
@@ -2040,7 +2097,7 @@
       <c r="AO12" s="47"/>
       <c r="AQ12" s="12"/>
       <c r="AU12" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV12" s="47"/>
       <c r="AW12" s="47"/>
@@ -2052,7 +2109,7 @@
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
       <c r="M13" s="58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="59"/>
       <c r="O13" s="59"/>
@@ -2064,7 +2121,7 @@
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -2080,7 +2137,7 @@
       <c r="AP14" s="48"/>
       <c r="AQ14" s="12"/>
       <c r="AU14" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AV14" s="50"/>
       <c r="AW14" s="50"/>
@@ -2091,50 +2148,50 @@
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="L15" s="12"/>
       <c r="O15" s="12"/>
       <c r="AN15" s="12"/>
       <c r="AQ15" s="12"/>
       <c r="AU15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="AY15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2145,19 +2202,19 @@
         <v>45769</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11">
         <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="11">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="12"/>
       <c r="O16" s="12"/>
@@ -2170,19 +2227,19 @@
         <v>45766</v>
       </c>
       <c r="AW16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AX16" s="11">
         <v>5</v>
       </c>
       <c r="AY16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ16" s="11">
         <v>1</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
@@ -2193,19 +2250,19 @@
         <v>45771</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L17" s="12"/>
       <c r="O17" s="12"/>
@@ -2218,19 +2275,19 @@
         <v>45768</v>
       </c>
       <c r="AW17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AX17" s="13">
         <v>3</v>
       </c>
       <c r="AY17" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ17" s="13">
         <v>4</v>
       </c>
       <c r="BA17" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -2241,19 +2298,19 @@
         <v>45773</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
@@ -2266,22 +2323,22 @@
         <v>45770</v>
       </c>
       <c r="AW18" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX18" s="13">
         <v>2</v>
       </c>
       <c r="AY18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AZ18" s="13">
         <v>1</v>
       </c>
       <c r="BA18" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2292,19 +2349,19 @@
         <v>45775</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="31">
         <v>2</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F19" s="31">
         <v>4</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
@@ -2322,132 +2379,132 @@
         <v>45773</v>
       </c>
       <c r="AW19" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX19" s="31">
         <v>0</v>
       </c>
       <c r="AY19" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AZ19" s="31">
         <v>4</v>
       </c>
       <c r="BA19" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="27">
         <v>45777</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="16"/>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AU20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AV20" s="27">
         <v>45775</v>
       </c>
       <c r="AW20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AX20" s="13">
         <v>2</v>
       </c>
       <c r="AY20" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ20" s="13">
         <v>6</v>
       </c>
       <c r="BA20" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="27">
         <v>45779</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="16"/>
       <c r="O21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AU21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV21" s="27">
         <v>45778</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX21" s="13"/>
       <c r="AY21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="16"/>
     </row>
     <row r="22" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="28">
         <v>45781</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="6"/>
       <c r="O22" s="12"/>
       <c r="AN22" s="12"/>
       <c r="AU22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AV22" s="28">
         <v>45780</v>
       </c>
       <c r="AW22" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AX22" s="15"/>
       <c r="AY22" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ22" s="15"/>
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -2458,7 +2515,7 @@
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
       <c r="AU23" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV23" s="47"/>
       <c r="AW23" s="47"/>
@@ -2473,7 +2530,7 @@
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -2484,7 +2541,7 @@
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
       <c r="AU25" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV25" s="47"/>
       <c r="AW25" s="47"/>
@@ -2495,25 +2552,25 @@
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="O26" s="49"/>
       <c r="P26" s="48"/>
@@ -2534,25 +2591,25 @@
       <c r="AL26" s="48"/>
       <c r="AM26" s="54"/>
       <c r="AU26" s="20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW26" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA26" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="AY26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA26" s="20" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2563,22 +2620,22 @@
         <v>45768</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="11">
         <v>2</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="11">
         <v>3</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O27" s="12"/>
       <c r="X27" s="12"/>
@@ -2591,19 +2648,19 @@
         <v>45767</v>
       </c>
       <c r="AW27" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AX27" s="11">
         <v>2</v>
       </c>
       <c r="AY27" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ27" s="11">
         <v>4</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2614,23 +2671,23 @@
         <v>45770</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" s="13">
         <v>3</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
@@ -2641,7 +2698,7 @@
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
       <c r="AF28" s="47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG28" s="47"/>
       <c r="AH28" s="47"/>
@@ -2657,19 +2714,19 @@
         <v>45769</v>
       </c>
       <c r="AW28" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AX28" s="13">
         <v>5</v>
       </c>
       <c r="AY28" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ28" s="13">
         <v>2</v>
       </c>
       <c r="BA28" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2680,64 +2737,64 @@
         <v>45772</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="13">
         <v>6</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R29" s="22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="T29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="V29" s="22" t="s">
-        <v>9</v>
       </c>
       <c r="X29" s="12"/>
       <c r="AD29" s="13"/>
       <c r="AF29" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="AN29" s="12"/>
       <c r="AU29" s="8">
@@ -2747,19 +2804,19 @@
         <v>45771</v>
       </c>
       <c r="AW29" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AX29" s="13">
         <v>2</v>
       </c>
       <c r="AY29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ29" s="13">
         <v>5</v>
       </c>
       <c r="BA29" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2770,19 +2827,19 @@
         <v>45774</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="31">
         <v>5</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="31">
         <v>2</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -2819,37 +2876,37 @@
         <v>45773</v>
       </c>
       <c r="AW30" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AX30" s="31">
         <v>4</v>
       </c>
       <c r="AY30" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ30" s="31">
         <v>3</v>
       </c>
       <c r="BA30" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BB30" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="27">
         <v>45777</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="32"/>
@@ -2880,34 +2937,43 @@
       <c r="AR31" s="17"/>
       <c r="AS31" s="17"/>
       <c r="AU31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AV31" s="27">
         <v>45776</v>
       </c>
       <c r="AW31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX31" s="13">
+        <v>2</v>
+      </c>
+      <c r="AY31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="16"/>
+      <c r="AZ31" s="13">
+        <v>3</v>
+      </c>
+      <c r="BA31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="27">
         <v>45779</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="16"/>
@@ -2936,34 +3002,34 @@
       <c r="AN32" s="12"/>
       <c r="AQ32" s="12"/>
       <c r="AU32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV32" s="27">
         <v>45778</v>
       </c>
       <c r="AW32" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AX32" s="13"/>
       <c r="AY32" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ32" s="13"/>
       <c r="BA32" s="16"/>
     </row>
     <row r="33" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="28">
         <v>45781</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="6"/>
@@ -2992,24 +3058,24 @@
       <c r="AN33" s="12"/>
       <c r="AQ33" s="12"/>
       <c r="AU33" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AV33" s="28">
         <v>45780</v>
       </c>
       <c r="AW33" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AX33" s="15"/>
       <c r="AY33" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ33" s="15"/>
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3020,7 +3086,7 @@
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="12"/>
@@ -3031,7 +3097,7 @@
       <c r="X34" s="12"/>
       <c r="AD34" s="13"/>
       <c r="AF34" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG34" s="27"/>
       <c r="AH34" s="12"/>
@@ -3042,7 +3108,7 @@
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
       <c r="AU34" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV34" s="47"/>
       <c r="AW34" s="47"/>
@@ -3055,7 +3121,7 @@
       <c r="L35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="12"/>
@@ -3066,7 +3132,7 @@
       <c r="X35" s="12"/>
       <c r="AD35" s="13"/>
       <c r="AF35" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG35" s="27"/>
       <c r="AH35" s="12"/>
@@ -3079,7 +3145,7 @@
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -3092,7 +3158,7 @@
       <c r="N36" s="48"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="12"/>
@@ -3103,7 +3169,7 @@
       <c r="X36" s="12"/>
       <c r="AD36" s="13"/>
       <c r="AF36" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG36" s="34"/>
       <c r="AH36" s="35"/>
@@ -3116,7 +3182,7 @@
       <c r="AP36" s="48"/>
       <c r="AQ36" s="12"/>
       <c r="AU36" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AV36" s="50"/>
       <c r="AW36" s="50"/>
@@ -3127,29 +3193,29 @@
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="L37" s="12"/>
       <c r="P37" s="61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
@@ -3165,7 +3231,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="54"/>
       <c r="AF37" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG37" s="47"/>
       <c r="AH37" s="47"/>
@@ -3175,25 +3241,25 @@
       <c r="AL37" s="47"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW37" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA37" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="AY37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA37" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3204,19 +3270,19 @@
         <v>45767</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="11">
         <v>4</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38" s="12"/>
       <c r="AQ38" s="12"/>
@@ -3227,19 +3293,19 @@
         <v>45768</v>
       </c>
       <c r="AW38" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AX38" s="11">
         <v>5</v>
       </c>
       <c r="AY38" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ38" s="11">
         <v>6</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,23 +3316,23 @@
         <v>45769</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F39" s="13">
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
@@ -3275,7 +3341,7 @@
       <c r="R39" s="59"/>
       <c r="S39" s="60"/>
       <c r="X39" s="47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y39" s="47"/>
       <c r="Z39" s="47"/>
@@ -3284,7 +3350,7 @@
       <c r="AC39" s="47"/>
       <c r="AD39" s="47"/>
       <c r="AI39" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ39" s="59"/>
       <c r="AK39" s="59"/>
@@ -3300,19 +3366,19 @@
         <v>45770</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AX39" s="13">
         <v>2</v>
       </c>
       <c r="AY39" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ39" s="13">
         <v>6</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3323,83 +3389,83 @@
         <v>45772</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" s="13">
         <v>2</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F40" s="13">
         <v>3</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R40" s="22" t="s">
+      <c r="X40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S40" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA40" s="3" t="s">
+      <c r="AI40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO40" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO40" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="AQ40" s="12"/>
       <c r="AU40" s="8">
@@ -3409,19 +3475,19 @@
         <v>45772</v>
       </c>
       <c r="AW40" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX40" s="13">
         <v>4</v>
       </c>
       <c r="AY40" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AZ40" s="13">
         <v>7</v>
       </c>
       <c r="BA40" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3432,21 +3498,23 @@
         <v>45774</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="31">
         <v>5</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F41" s="31">
         <v>2</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="48"/>
+        <v>72</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="J41" s="48"/>
       <c r="K41" s="48"/>
       <c r="L41" s="12"/>
@@ -3487,40 +3555,46 @@
         <v>45774</v>
       </c>
       <c r="AW41" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX41" s="31">
         <v>3</v>
       </c>
       <c r="AY41" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AZ41" s="31">
         <v>4</v>
       </c>
       <c r="BA41" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BB41" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="27">
         <v>45776</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="D42" s="13">
+        <v>4</v>
+      </c>
       <c r="E42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F42" s="13">
+        <v>5</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="M42" s="8">
         <v>2</v>
       </c>
@@ -3549,34 +3623,40 @@
       <c r="AN42" s="13"/>
       <c r="AO42" s="16"/>
       <c r="AU42" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AV42" s="27">
         <v>45776</v>
       </c>
       <c r="AW42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX42" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="AX42" s="13">
+        <v>3</v>
+      </c>
       <c r="AY42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ42" s="13"/>
-      <c r="BA42" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="AZ42" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="27">
         <v>45779</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="16"/>
@@ -3608,34 +3688,34 @@
       <c r="AN43" s="13"/>
       <c r="AO43" s="16"/>
       <c r="AU43" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV43" s="27">
         <v>45778</v>
       </c>
       <c r="AW43" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX43" s="13"/>
       <c r="AY43" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AZ43" s="13"/>
       <c r="BA43" s="32"/>
     </row>
     <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="28">
         <v>45781</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="6"/>
@@ -3667,24 +3747,24 @@
       <c r="AN44" s="13"/>
       <c r="AO44" s="16"/>
       <c r="AU44" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AV44" s="28">
         <v>45780</v>
       </c>
       <c r="AW44" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AX44" s="15"/>
       <c r="AY44" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ44" s="15"/>
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -3693,7 +3773,7 @@
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="M45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N45" s="33"/>
       <c r="O45" s="12"/>
@@ -3702,7 +3782,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="16"/>
       <c r="X45" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y45" s="27"/>
       <c r="Z45" s="12"/>
@@ -3711,7 +3791,7 @@
       <c r="AC45" s="13"/>
       <c r="AD45" s="16"/>
       <c r="AI45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AJ45" s="27"/>
       <c r="AK45" s="12"/>
@@ -3720,7 +3800,7 @@
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
       <c r="AU45" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV45" s="47"/>
       <c r="AW45" s="47"/>
@@ -3731,7 +3811,7 @@
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N46" s="33"/>
       <c r="O46" s="12"/>
@@ -3740,7 +3820,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="16"/>
       <c r="X46" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y46" s="27"/>
       <c r="Z46" s="12"/>
@@ -3749,7 +3829,7 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="16"/>
       <c r="AI46" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ46" s="27"/>
       <c r="AK46" s="12"/>
@@ -3760,7 +3840,7 @@
     </row>
     <row r="47" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M47" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N47" s="34"/>
       <c r="O47" s="12"/>
@@ -3769,7 +3849,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="16"/>
       <c r="X47" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y47" s="28"/>
       <c r="Z47" s="14"/>
@@ -3778,7 +3858,7 @@
       <c r="AC47" s="15"/>
       <c r="AD47" s="6"/>
       <c r="AI47" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ47" s="28"/>
       <c r="AK47" s="14"/>
@@ -3789,7 +3869,7 @@
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M48" s="58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N48" s="59"/>
       <c r="O48" s="59"/>
@@ -3798,7 +3878,7 @@
       <c r="R48" s="59"/>
       <c r="S48" s="60"/>
       <c r="X48" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y48" s="47"/>
       <c r="Z48" s="47"/>
@@ -3807,7 +3887,7 @@
       <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
       <c r="AI48" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ48" s="47"/>
       <c r="AK48" s="47"/>
@@ -3877,95 +3957,95 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>Matchups!$A$14:$A$15</xm:f>
+            <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>I8:K8 E5:E11 C5:C11</xm:sqref>
+          <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>Matchups!$A$20:$A$21</xm:f>
+            <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>I19:K19 C27:C33 E27:E33</xm:sqref>
+          <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
-            <xm:f>Matchups!$A$23:$A$24</xm:f>
+            <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>I30:K30 C38:C44 E38:E44</xm:sqref>
+          <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
-            <xm:f>Matchups!$A$17:$A$18</xm:f>
+            <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C16:C22 E16:E22 I41:K41</xm:sqref>
+          <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
-            <xm:f>Matchups!$C$14:$C$15</xm:f>
+            <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
+          <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
-            <xm:f>Matchups!$C$17:$C$18</xm:f>
+            <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
+          <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
-            <xm:f>Matchups!$E$14:$E$15</xm:f>
+            <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
-          <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
+          <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
-            <xm:f>Matchups!$F$14:$F$15</xm:f>
+            <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
-          <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
+          <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
-            <xm:f>Matchups!$G$13:$G$14</xm:f>
+            <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
+          <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
-            <xm:f>Matchups!$B$14:$B$15</xm:f>
+            <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ8:AS8 AW5:AW11 AY5:AY11</xm:sqref>
+          <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
-            <xm:f>Matchups!$B$20:$B$21</xm:f>
+            <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ19:AS19 AW27:AW33 AY27:AY33</xm:sqref>
+          <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
-            <xm:f>Matchups!$B$23:$B$24</xm:f>
+            <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ30:AS30 AW38:AW44 AY38:AY44</xm:sqref>
+          <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
-            <xm:f>Matchups!$B$17:$B$18</xm:f>
+            <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>AW16:AW22 AY16:AY22 AQ41:AS41</xm:sqref>
+          <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
-            <xm:f>Matchups!$D$14:$D$15</xm:f>
+            <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
+          <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
-            <xm:f>Matchups!$D$17:$D$18</xm:f>
+            <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>
-          <xm:sqref>AN36:AP36 AK41:AK47 AM41:AM47</xm:sqref>
+          <xm:sqref>AN36:AP36 AM41:AM47 AK41:AK47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F698CF-9DFC-401C-9DA7-C6FFD4F33456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="83">
   <si>
     <t>Game</t>
   </si>
@@ -266,12 +265,21 @@
   </si>
   <si>
     <t>Maple Leafs Lead 3-2</t>
+  </si>
+  <si>
+    <t>Capitals Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Panthers Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Jets Lead 3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -647,30 +655,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,42 +725,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,22 +1026,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1058,7 +1066,9 @@
       <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1070,7 +1080,9 @@
       <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="17"/>
@@ -1085,7 +1097,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -1096,8 +1108,8 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -1106,10 +1118,10 @@
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1118,10 +1130,10 @@
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1130,24 +1142,24 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1176,18 +1188,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1210,20 +1222,22 @@
       <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1232,7 +1246,9 @@
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,10 +1264,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1270,10 +1286,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1355,28 +1371,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1386,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14:AP14"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,124 +1453,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="Z1" s="55" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="61"/>
+      <c r="Z1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
+      <c r="AF1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="57"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="61"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="M2" s="51" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="M2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
-      <c r="AI2" s="51" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="AI2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AU2" s="51" t="s">
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="65"/>
+      <c r="AU2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="53"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="65"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="AI3" s="58" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="AI3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="60"/>
-      <c r="AU3" s="47" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="52"/>
+      <c r="AU3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1578,15 +1594,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="60"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1856,9 +1872,9 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1877,9 +1893,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="58"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1955,12 +1971,18 @@
       <c r="AW9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="13">
+        <v>3</v>
+      </c>
       <c r="AY9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="32"/>
+      <c r="AZ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA9" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -2067,15 +2089,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2086,65 +2108,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="47" t="s">
+      <c r="AI12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="47" t="s">
+      <c r="AU12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2363,15 +2385,17 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2404,12 +2428,18 @@
       <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13">
+        <v>6</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AU20" s="8" t="s">
@@ -2503,52 +2533,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="47" t="s">
+      <c r="AU23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="47" t="s">
+      <c r="AU25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="47"/>
-      <c r="AZ25" s="47"/>
-      <c r="BA25" s="47"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2572,24 +2602,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="54"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="66"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2686,26 +2716,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="58" t="s">
+      <c r="P28" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="52"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="47" t="s">
+      <c r="AF28" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2841,9 +2871,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+      <c r="I30" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2866,9 +2898,9 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
+      <c r="AQ30" s="58"/>
+      <c r="AR30" s="58"/>
+      <c r="AS30" s="58"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -2904,12 +2936,18 @@
       <c r="C31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
       <c r="E31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="32"/>
+      <c r="F31" s="13">
+        <v>4</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="8">
@@ -3074,15 +3112,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3107,15 +3145,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="47" t="s">
+      <c r="AU34" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47"/>
-      <c r="AX34" s="47"/>
-      <c r="AY34" s="47"/>
-      <c r="AZ34" s="47"/>
-      <c r="BA34" s="47"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3144,18 +3182,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3177,19 +3215,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="48"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="58"/>
+      <c r="AP36" s="58"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
+      <c r="AY36" s="56"/>
+      <c r="AZ36" s="56"/>
+      <c r="BA36" s="56"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3214,31 +3252,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="61" t="s">
+      <c r="P37" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="63"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="54"/>
-      <c r="AF37" s="47" t="s">
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="55"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="66"/>
+      <c r="AF37" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="47"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3331,33 +3369,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="58" t="s">
+      <c r="M39" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="X39" s="47" t="s">
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="52"/>
+      <c r="X39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AI39" s="58" t="s">
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AI39" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="60"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="52"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3512,11 +3550,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3545,9 +3583,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="48"/>
-      <c r="AS41" s="48"/>
+      <c r="AQ41" s="62"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3763,15 +3801,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3799,15 +3837,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="47" t="s">
+      <c r="AU45" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="47"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="47"/>
+      <c r="AV45" s="57"/>
+      <c r="AW45" s="57"/>
+      <c r="AX45" s="57"/>
+      <c r="AY45" s="57"/>
+      <c r="AZ45" s="57"/>
+      <c r="BA45" s="57"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3868,45 +3906,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="58" t="s">
+      <c r="M48" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="60"/>
-      <c r="X48" s="47" t="s">
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="52"/>
+      <c r="X48" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AI48" s="47" t="s">
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="57"/>
+      <c r="AC48" s="57"/>
+      <c r="AD48" s="57"/>
+      <c r="AI48" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="47"/>
-      <c r="AM48" s="47"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="47"/>
+      <c r="AJ48" s="57"/>
+      <c r="AK48" s="57"/>
+      <c r="AL48" s="57"/>
+      <c r="AM48" s="57"/>
+      <c r="AN48" s="57"/>
+      <c r="AO48" s="57"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3923,125 +3981,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F4769E-2943-4E98-A93C-E06740D2C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="85">
   <si>
     <t>Game</t>
   </si>
@@ -274,12 +275,18 @@
   </si>
   <si>
     <t>Jets Lead 3-2</t>
+  </si>
+  <si>
+    <t>Maple Leafs Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Golden Knights Win Series 4-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -527,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,22 +665,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,39 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1059,9 @@
       <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
@@ -1094,10 +1100,11 @@
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -1108,8 +1115,6 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -1118,10 +1123,6 @@
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1130,10 +1131,6 @@
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1142,24 +1139,24 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1206,9 @@
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1234,7 +1233,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="47"/>
@@ -1249,7 +1248,9 @@
       <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1371,28 +1372,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1402,11 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView tabSelected="1" topLeftCell="AE19" workbookViewId="0">
+      <selection activeCell="AS33" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,135 +1443,139 @@
     <col min="39" max="39" width="22.140625" style="1" customWidth="1"/>
     <col min="40" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="22.140625" style="1" customWidth="1"/>
-    <col min="42" max="47" width="9.140625" style="1"/>
+    <col min="42" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="10.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="10.5703125" style="1" customWidth="1"/>
+    <col min="46" max="47" width="9.140625" style="1"/>
     <col min="48" max="48" width="10.28515625" style="1" customWidth="1"/>
     <col min="49" max="49" width="23.140625" style="1" customWidth="1"/>
     <col min="50" max="50" width="9.140625" style="1"/>
     <col min="51" max="51" width="23.140625" style="1" customWidth="1"/>
     <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="26.140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" style="1" customWidth="1"/>
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
-      <c r="Z1" s="59" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="61"/>
-      <c r="AF1" s="59" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="61"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="M2" s="63" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-      <c r="AI2" s="63" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="65"/>
-      <c r="AU2" s="63" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="65"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="52"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1594,15 +1599,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1872,9 +1877,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="I8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1893,9 +1900,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="58"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1994,12 +2001,18 @@
       <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="8" t="s">
         <v>43</v>
@@ -2089,15 +2102,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2108,65 +2121,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="57" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="57" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="56" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="56"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="56"/>
-      <c r="BA14" s="56"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2385,17 +2398,17 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2533,52 +2546,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="57" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="57"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="57"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="57"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="57" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2602,24 +2615,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="66"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2716,26 +2729,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="52"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="57" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2871,11 +2884,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2898,9 +2911,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
+      <c r="AQ30" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3048,12 +3063,18 @@
       <c r="AW32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AX32" s="13"/>
+      <c r="AX32" s="13">
+        <v>3</v>
+      </c>
       <c r="AY32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="16"/>
+      <c r="AZ32" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA32" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
@@ -3112,15 +3133,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3145,15 +3166,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="57" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3182,18 +3203,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3215,19 +3236,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="58"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="56" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3252,31 +3273,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="53" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="55"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="58"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="66"/>
-      <c r="AF37" s="57" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3369,33 +3390,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-      <c r="X39" s="57" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="52"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3550,11 +3571,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3583,9 +3604,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3801,15 +3822,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3837,15 +3858,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="57" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="57"/>
-      <c r="AW45" s="57"/>
-      <c r="AX45" s="57"/>
-      <c r="AY45" s="57"/>
-      <c r="AZ45" s="57"/>
-      <c r="BA45" s="57"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3906,49 +3927,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="50" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="52"/>
-      <c r="X48" s="57" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="57"/>
-      <c r="AI48" s="57" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="57"/>
-      <c r="AN48" s="57"/>
-      <c r="AO48" s="57"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3965,121 +3998,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F4769E-2943-4E98-A93C-E06740D2C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="87">
   <si>
     <t>Game</t>
   </si>
@@ -281,12 +280,18 @@
   </si>
   <si>
     <t>Golden Knights Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Oilers Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Series Tied 3-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -668,30 +673,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,33 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1145,18 +1150,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1185,18 +1190,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,14 +1234,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1265,10 +1270,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1287,10 +1292,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1372,28 +1377,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1403,11 +1408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE19" workbookViewId="0">
-      <selection activeCell="AS33" sqref="AS33"/>
+    <sheetView tabSelected="1" topLeftCell="AL7" workbookViewId="0">
+      <selection activeCell="BA22" sqref="BA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,124 +1463,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1599,15 +1604,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1877,11 +1882,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1900,9 +1905,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2102,15 +2107,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2121,65 +2126,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2398,17 +2403,17 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2504,12 +2509,18 @@
       <c r="AW21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AX21" s="13"/>
+      <c r="AX21" s="13">
+        <v>4</v>
+      </c>
       <c r="AY21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="16"/>
+      <c r="AZ21" s="13">
+        <v>7</v>
+      </c>
+      <c r="BA21" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -2546,52 +2557,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2615,24 +2626,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2729,26 +2740,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2884,11 +2895,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2911,11 +2922,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3133,15 +3144,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3166,15 +3177,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3203,18 +3214,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3236,19 +3247,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3273,31 +3284,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3390,33 +3401,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3571,11 +3582,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3604,9 +3615,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3755,12 +3766,18 @@
       <c r="AW43" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AX43" s="13"/>
+      <c r="AX43" s="13">
+        <v>4</v>
+      </c>
       <c r="AY43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AZ43" s="13"/>
-      <c r="BA43" s="32"/>
+      <c r="AZ43" s="13">
+        <v>6</v>
+      </c>
+      <c r="BA43" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
@@ -3822,15 +3839,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3858,15 +3875,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3927,45 +3944,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3982,125 +4019,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01099CA-B918-4391-8FA2-76CA66CD3E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="87">
   <si>
     <t>Game</t>
   </si>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -673,16 +674,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,39 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1150,18 +1151,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1190,18 +1191,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,14 +1235,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1270,10 +1271,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1292,10 +1293,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1377,28 +1378,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1408,11 +1409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL7" workbookViewId="0">
-      <selection activeCell="BA22" sqref="BA22"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,124 +1464,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1604,15 +1605,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1882,11 +1883,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1905,9 +1906,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2047,12 +2048,18 @@
       <c r="AW10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AX10" s="13"/>
+      <c r="AX10" s="13">
+        <v>2</v>
+      </c>
       <c r="AY10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="16"/>
+      <c r="AZ10" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -2107,15 +2114,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2126,65 +2133,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2403,17 +2410,17 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2557,52 +2564,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2626,24 +2633,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2740,26 +2747,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2895,11 +2902,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2922,11 +2929,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3144,15 +3151,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3177,15 +3184,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3214,18 +3221,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3247,19 +3254,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3284,31 +3291,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3401,33 +3408,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3582,11 +3589,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3615,9 +3622,9 @@
       <c r="AM41" s="23"/>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="61"/>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3839,15 +3846,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3875,15 +3882,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3944,49 +3951,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4003,121 +4022,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01099CA-B918-4391-8FA2-76CA66CD3E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508ED5D2-14ED-443A-85AE-5FF7902693AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="88">
   <si>
     <t>Game</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Series Tied 3-3</t>
+  </si>
+  <si>
+    <t>Stars Win Series 4-3</t>
   </si>
 </sst>
 </file>
@@ -674,30 +677,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,33 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1084,9 @@
       <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
@@ -1095,7 +1100,9 @@
       <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="17"/>
     </row>
@@ -1151,18 +1158,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1191,18 +1198,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1230,19 +1237,21 @@
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1268,13 +1277,15 @@
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1293,10 +1304,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1378,16 +1389,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1412,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,124 +1475,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1605,15 +1616,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1714,9 @@
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="26"/>
+      <c r="AJ5" s="26">
+        <v>45782</v>
+      </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="10"/>
@@ -1759,16 +1772,24 @@
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="29">
+        <v>45782</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="5"/>
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="27"/>
+      <c r="AJ6" s="27">
+        <v>45784</v>
+      </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="12"/>
@@ -1821,16 +1842,24 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="33">
+        <v>45784</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="P7" s="13"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="R7" s="13"/>
       <c r="S7" s="16"/>
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="27"/>
+      <c r="AJ7" s="27">
+        <v>45786</v>
+      </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="12"/>
@@ -1883,32 +1912,40 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="30"/>
+      <c r="N8" s="33">
+        <v>45786</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" s="31"/>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="R8" s="31"/>
       <c r="S8" s="16"/>
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="33"/>
+      <c r="AJ8" s="33">
+        <v>45788</v>
+      </c>
       <c r="AK8" s="30"/>
       <c r="AL8" s="31"/>
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1957,10 +1994,16 @@
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="33">
+        <v>45788</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="P9" s="13"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="R9" s="13"/>
       <c r="S9" s="16"/>
       <c r="AI9" s="8" t="s">
@@ -2024,9 +2067,13 @@
         <v>43</v>
       </c>
       <c r="N10" s="33"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="16"/>
       <c r="AI10" s="8" t="s">
@@ -2082,9 +2129,13 @@
         <v>44</v>
       </c>
       <c r="N11" s="33"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="16"/>
       <c r="AI11" s="9" t="s">
@@ -2114,84 +2165,88 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="N12" s="34"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="P12" s="13"/>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2410,17 +2465,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AQ19" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2556,60 +2613,66 @@
       <c r="AW22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AX22" s="15"/>
+      <c r="AX22" s="15">
+        <v>2</v>
+      </c>
       <c r="AY22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="6"/>
+      <c r="AZ22" s="15">
+        <v>4</v>
+      </c>
+      <c r="BA22" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2633,24 +2696,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2747,26 +2810,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2902,11 +2965,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2929,11 +2992,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3151,15 +3214,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3184,15 +3247,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3221,18 +3284,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3254,19 +3317,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3291,31 +3354,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3408,33 +3471,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3589,19 +3652,25 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="23"/>
+      <c r="N41" s="29">
+        <v>45783</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="P41" s="24"/>
-      <c r="Q41" s="23"/>
+      <c r="Q41" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="R41" s="24"/>
       <c r="S41" s="25"/>
       <c r="X41" s="7">
@@ -3616,15 +3685,23 @@
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="23"/>
+      <c r="AJ41" s="29">
+        <v>45783</v>
+      </c>
+      <c r="AK41" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="AL41" s="24"/>
-      <c r="AM41" s="23"/>
+      <c r="AM41" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AQ41" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3675,10 +3752,16 @@
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="33"/>
-      <c r="O42" s="12"/>
+      <c r="N42" s="33">
+        <v>45785</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P42" s="13"/>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="R42" s="13"/>
       <c r="S42" s="16"/>
       <c r="X42" s="8">
@@ -3693,10 +3776,16 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="12"/>
+      <c r="AJ42" s="27">
+        <v>45785</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AL42" s="13"/>
-      <c r="AM42" s="12"/>
+      <c r="AM42" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AN42" s="13"/>
       <c r="AO42" s="16"/>
       <c r="AU42" s="8" t="s">
@@ -3740,10 +3829,16 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="12"/>
+      <c r="N43" s="33">
+        <v>45787</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P43" s="13"/>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="R43" s="13"/>
       <c r="S43" s="16"/>
       <c r="X43" s="8">
@@ -3758,10 +3853,16 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="12"/>
+      <c r="AJ43" s="27">
+        <v>45787</v>
+      </c>
+      <c r="AK43" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AL43" s="13"/>
-      <c r="AM43" s="12"/>
+      <c r="AM43" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AN43" s="13"/>
       <c r="AO43" s="16"/>
       <c r="AU43" s="8" t="s">
@@ -3805,10 +3906,16 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="12"/>
+      <c r="N44" s="33">
+        <v>45789</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P44" s="13"/>
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="16"/>
       <c r="X44" s="8">
@@ -3823,10 +3930,16 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="12"/>
+      <c r="AJ44" s="33">
+        <v>45789</v>
+      </c>
+      <c r="AK44" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AL44" s="13"/>
-      <c r="AM44" s="12"/>
+      <c r="AM44" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AN44" s="13"/>
       <c r="AO44" s="16"/>
       <c r="AU44" s="9" t="s">
@@ -3846,22 +3959,26 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
       <c r="N45" s="33"/>
-      <c r="O45" s="12"/>
+      <c r="O45" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P45" s="13"/>
-      <c r="Q45" s="12"/>
+      <c r="Q45" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="R45" s="13"/>
       <c r="S45" s="16"/>
       <c r="X45" s="8" t="s">
@@ -3877,29 +3994,37 @@
         <v>43</v>
       </c>
       <c r="AJ45" s="27"/>
-      <c r="AK45" s="12"/>
+      <c r="AK45" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AL45" s="13"/>
-      <c r="AM45" s="12"/>
+      <c r="AM45" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>44</v>
       </c>
       <c r="N46" s="33"/>
-      <c r="O46" s="12"/>
+      <c r="O46" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="P46" s="13"/>
-      <c r="Q46" s="12"/>
+      <c r="Q46" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="R46" s="13"/>
       <c r="S46" s="16"/>
       <c r="X46" s="8" t="s">
@@ -3915,9 +4040,13 @@
         <v>44</v>
       </c>
       <c r="AJ46" s="27"/>
-      <c r="AK46" s="12"/>
+      <c r="AK46" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="AL46" s="13"/>
-      <c r="AM46" s="12"/>
+      <c r="AM46" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AN46" s="13"/>
       <c r="AO46" s="16"/>
     </row>
@@ -3926,9 +4055,13 @@
         <v>45</v>
       </c>
       <c r="N47" s="34"/>
-      <c r="O47" s="12"/>
+      <c r="O47" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P47" s="13"/>
-      <c r="Q47" s="12"/>
+      <c r="Q47" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="R47" s="13"/>
       <c r="S47" s="16"/>
       <c r="X47" s="9" t="s">
@@ -3944,52 +4077,76 @@
         <v>45</v>
       </c>
       <c r="AJ47" s="28"/>
-      <c r="AK47" s="14"/>
+      <c r="AK47" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="AL47" s="15"/>
-      <c r="AM47" s="14"/>
+      <c r="AM47" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="AN47" s="15"/>
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4006,34 +4163,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508ED5D2-14ED-443A-85AE-5FF7902693AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77B83D-FE17-49D4-9284-1CB73FB65F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="90">
   <si>
     <t>Game</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>Stars Win Series 4-3</t>
+  </si>
+  <si>
+    <t>2OT</t>
+  </si>
+  <si>
+    <t>Jets Win Series 4-3</t>
   </si>
 </sst>
 </file>
@@ -677,18 +683,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,39 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1091,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1116,7 +1122,9 @@
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1158,18 +1166,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1198,18 +1206,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,7 +1230,9 @@
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
@@ -1238,20 +1248,20 @@
         <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1282,10 +1292,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1304,10 +1314,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1389,16 +1399,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1424,7 +1434,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,127 +1484,127 @@
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+    <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
-    </row>
-    <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
+    </row>
+    <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
-    </row>
-    <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+    </row>
+    <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-    </row>
-    <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+    </row>
+    <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1616,15 +1626,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1717,9 +1727,13 @@
       <c r="AJ5" s="26">
         <v>45782</v>
       </c>
-      <c r="AK5" s="10"/>
+      <c r="AK5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AL5" s="11"/>
-      <c r="AM5" s="10"/>
+      <c r="AM5" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="AN5" s="11"/>
       <c r="AO5" s="5"/>
       <c r="AU5" s="7">
@@ -1744,7 +1758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1790,9 +1804,13 @@
       <c r="AJ6" s="27">
         <v>45784</v>
       </c>
-      <c r="AK6" s="12"/>
+      <c r="AK6" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AL6" s="13"/>
-      <c r="AM6" s="12"/>
+      <c r="AM6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AN6" s="13"/>
       <c r="AO6" s="16"/>
       <c r="AU6" s="8">
@@ -1817,7 +1835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1860,9 +1878,13 @@
       <c r="AJ7" s="27">
         <v>45786</v>
       </c>
-      <c r="AK7" s="12"/>
+      <c r="AK7" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AL7" s="13"/>
-      <c r="AM7" s="12"/>
+      <c r="AM7" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AN7" s="13"/>
       <c r="AO7" s="16"/>
       <c r="AU7" s="8">
@@ -1887,7 +1909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1912,11 +1934,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1938,14 +1960,20 @@
       <c r="AJ8" s="33">
         <v>45788</v>
       </c>
-      <c r="AK8" s="30"/>
+      <c r="AK8" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="AL8" s="31"/>
-      <c r="AM8" s="30"/>
+      <c r="AM8" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AQ8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -1968,7 +1996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -2010,9 +2038,13 @@
         <v>43</v>
       </c>
       <c r="AJ9" s="27"/>
-      <c r="AK9" s="12"/>
+      <c r="AK9" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AL9" s="13"/>
-      <c r="AM9" s="12"/>
+      <c r="AM9" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AN9" s="13"/>
       <c r="AO9" s="16"/>
       <c r="AQ9" s="10"/>
@@ -2040,7 +2072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2080,9 +2112,13 @@
         <v>44</v>
       </c>
       <c r="AJ10" s="27"/>
-      <c r="AK10" s="12"/>
+      <c r="AK10" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AL10" s="13"/>
-      <c r="AM10" s="12"/>
+      <c r="AM10" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AN10" s="13"/>
       <c r="AO10" s="16"/>
       <c r="AQ10" s="12"/>
@@ -2108,7 +2144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2142,9 +2178,13 @@
         <v>45</v>
       </c>
       <c r="AJ11" s="28"/>
-      <c r="AK11" s="14"/>
+      <c r="AK11" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="AL11" s="15"/>
-      <c r="AM11" s="14"/>
+      <c r="AM11" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="AN11" s="15"/>
       <c r="AO11" s="6"/>
       <c r="AQ11" s="12"/>
@@ -2157,23 +2197,32 @@
       <c r="AW11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AX11" s="15"/>
+      <c r="AX11" s="15">
+        <v>3</v>
+      </c>
       <c r="AY11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="6"/>
-    </row>
-    <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="AZ11" s="15">
+        <v>4</v>
+      </c>
+      <c r="BA11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2188,67 +2237,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
-    </row>
-    <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+    </row>
+    <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
-    <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-    </row>
-    <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+    </row>
+    <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -2465,19 +2514,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2627,52 +2676,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2696,24 +2745,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2810,26 +2859,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2965,11 +3014,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2992,11 +3041,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3214,15 +3263,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3247,15 +3296,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3284,18 +3333,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3317,19 +3366,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3354,31 +3403,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3471,33 +3520,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3652,11 +3701,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3697,11 +3746,11 @@
       </c>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3959,15 +4008,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4003,15 +4052,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4088,49 +4137,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4147,30 +4208,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77B83D-FE17-49D4-9284-1CB73FB65F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F9C5D5-DFB9-458C-9F74-43AE18CCC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="90">
   <si>
     <t>Game</t>
   </si>
@@ -683,30 +683,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,33 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,18 +1166,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1206,18 +1206,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1254,14 +1254,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1292,10 +1292,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1314,10 +1314,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1399,16 +1399,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,124 +1485,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1626,15 +1626,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1792,12 +1792,18 @@
       <c r="O6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>4</v>
+      </c>
       <c r="Q6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="11">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AI6" s="8">
         <v>2</v>
       </c>
@@ -1934,11 +1940,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1969,11 +1975,11 @@
       </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2214,15 +2220,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2237,65 +2243,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2514,19 +2520,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2676,52 +2682,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2745,24 +2751,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2859,26 +2865,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3014,11 +3020,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3041,11 +3047,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3263,15 +3269,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3296,15 +3302,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3333,18 +3339,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3366,19 +3372,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3403,31 +3409,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3520,33 +3526,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3701,11 +3707,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="AN41" s="24"/>
       <c r="AO41" s="25"/>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4008,15 +4014,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4052,15 +4058,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4137,45 +4143,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4192,34 +4218,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F9C5D5-DFB9-458C-9F74-43AE18CCC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="91">
   <si>
     <t>Game</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t>Jets Win Series 4-3</t>
+  </si>
+  <si>
+    <t>Oilers Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -683,18 +685,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,39 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1166,18 +1168,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1206,18 +1208,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1254,14 +1256,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1292,10 +1294,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1314,10 +1316,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1399,28 +1401,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1430,11 +1432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="AC19" workbookViewId="0">
+      <selection activeCell="AO41" sqref="AO41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,124 +1487,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1626,15 +1628,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1940,11 +1942,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1975,11 +1977,11 @@
       </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2220,15 +2222,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2243,65 +2245,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2520,19 +2522,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2682,52 +2684,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2751,24 +2753,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2865,26 +2867,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3020,11 +3022,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3047,11 +3049,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3269,15 +3271,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3302,15 +3304,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3339,18 +3341,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3372,19 +3374,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3409,31 +3411,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3526,33 +3528,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3707,11 +3709,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3722,12 +3724,21 @@
       <c r="O41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="P41" s="24"/>
+      <c r="P41" s="24">
+        <v>2</v>
+      </c>
       <c r="Q41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="25"/>
+      <c r="R41" s="24">
+        <v>1</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="X41" s="7">
         <v>1</v>
       </c>
@@ -3746,17 +3757,23 @@
       <c r="AK41" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AL41" s="24"/>
+      <c r="AL41" s="24">
+        <v>4</v>
+      </c>
       <c r="AM41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="25"/>
-      <c r="AQ41" s="61" t="s">
+      <c r="AN41" s="24">
+        <v>2</v>
+      </c>
+      <c r="AO41" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4014,15 +4031,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4058,15 +4075,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4143,49 +4160,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4202,121 +4231,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706CB88-835E-4ACD-A84A-A49B0ADC8EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="92">
   <si>
     <t>Game</t>
   </si>
@@ -298,12 +299,15 @@
   </si>
   <si>
     <t>Oilers Lead 1-0</t>
+  </si>
+  <si>
+    <t>Stars Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1027,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1413,16 +1417,16 @@
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1432,11 +1436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC19" workbookViewId="0">
-      <selection activeCell="AO41" sqref="AO41"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,12 +1736,18 @@
       <c r="AK5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="11"/>
+      <c r="AL5" s="11">
+        <v>3</v>
+      </c>
       <c r="AM5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="5"/>
+      <c r="AN5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AU5" s="7">
         <v>1</v>
       </c>
@@ -1874,12 +1884,18 @@
       <c r="O7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13">
+        <v>3</v>
+      </c>
       <c r="Q7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="16"/>
+      <c r="R7" s="13">
+        <v>4</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="AI7" s="8">
         <v>3</v>
       </c>
@@ -4249,91 +4265,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706CB88-835E-4ACD-A84A-A49B0ADC8EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C274DD04-597E-4A65-AB93-724DE49EBF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
   <si>
     <t>Game</t>
   </si>
@@ -689,30 +689,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,33 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,18 +1172,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1212,18 +1212,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1260,14 +1260,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1298,10 +1298,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1320,10 +1320,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1405,16 +1405,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,124 +1491,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1632,15 +1632,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1958,11 +1958,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1993,11 +1993,11 @@
       </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2238,15 +2238,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2261,65 +2261,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2538,19 +2538,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2700,52 +2700,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2769,24 +2769,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2883,26 +2883,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3038,11 +3038,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3065,11 +3065,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3287,15 +3287,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3320,15 +3320,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3357,18 +3357,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3390,19 +3390,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3427,31 +3427,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3544,33 +3544,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3725,11 +3725,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3785,11 +3785,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3846,12 +3846,18 @@
       <c r="O42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="13"/>
+      <c r="P42" s="13">
+        <v>1</v>
+      </c>
       <c r="Q42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="16"/>
+      <c r="R42" s="13">
+        <v>3</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="X42" s="8">
         <v>2</v>
       </c>
@@ -4047,15 +4053,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4091,15 +4097,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4176,45 +4182,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4231,34 +4257,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C274DD04-597E-4A65-AB93-724DE49EBF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E056823-0415-4FFE-BE67-02BB7EC32555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="95">
   <si>
     <t>Game</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Stars Lead 1-0</t>
+  </si>
+  <si>
+    <t>Oilers Lead 2-0</t>
+  </si>
+  <si>
+    <t>Maple Leafs Lead 2-1</t>
+  </si>
+  <si>
+    <t>Oilers Lead 2-1</t>
   </si>
 </sst>
 </file>
@@ -689,18 +698,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,39 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,18 +1181,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1212,18 +1221,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1260,14 +1269,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1298,10 +1307,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1320,10 +1329,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1405,16 +1414,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1439,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,124 +1500,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1632,15 +1641,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1825,12 +1834,18 @@
       <c r="AK6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="13"/>
+      <c r="AL6" s="13">
+        <v>0</v>
+      </c>
       <c r="AM6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="16"/>
+      <c r="AN6" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AU6" s="8">
         <v>2</v>
       </c>
@@ -1905,12 +1920,18 @@
       <c r="AK7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="13">
+        <v>2</v>
+      </c>
       <c r="AM7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="16"/>
+      <c r="AN7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="AU7" s="8">
         <v>3</v>
       </c>
@@ -1958,11 +1979,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1972,12 +1993,21 @@
       <c r="O8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="31"/>
+      <c r="P8" s="31">
+        <v>4</v>
+      </c>
       <c r="Q8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="16"/>
+      <c r="R8" s="31">
+        <v>5</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AI8" s="8">
         <v>4</v>
       </c>
@@ -1993,11 +2023,11 @@
       </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2052,16 +2082,24 @@
       <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
       <c r="Q9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="16"/>
+      <c r="R9" s="13">
+        <v>2</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="AI9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ9" s="27"/>
+      <c r="AJ9" s="27">
+        <v>45792</v>
+      </c>
       <c r="AK9" s="12" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2160,9 @@
       <c r="M10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="33"/>
+      <c r="N10" s="33">
+        <v>45791</v>
+      </c>
       <c r="O10" s="12" t="s">
         <v>22</v>
       </c>
@@ -2135,7 +2175,9 @@
       <c r="AI10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="27"/>
+      <c r="AJ10" s="27">
+        <v>45794</v>
+      </c>
       <c r="AK10" s="12" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2230,9 @@
       <c r="M11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="33"/>
+      <c r="N11" s="33">
+        <v>45793</v>
+      </c>
       <c r="O11" s="12" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2245,9 @@
       <c r="AI11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ11" s="28"/>
+      <c r="AJ11" s="28">
+        <v>45796</v>
+      </c>
       <c r="AK11" s="14" t="s">
         <v>30</v>
       </c>
@@ -2238,20 +2284,22 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="34">
+        <v>45795</v>
+      </c>
       <c r="O12" s="12" t="s">
         <v>22</v>
       </c>
@@ -2261,65 +2309,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2538,19 +2586,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2700,52 +2748,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2769,24 +2817,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2883,26 +2931,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3038,11 +3086,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3065,11 +3113,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3287,15 +3335,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3320,15 +3368,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3357,18 +3405,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3390,19 +3438,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3427,31 +3475,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3544,33 +3592,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3725,11 +3773,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3785,11 +3833,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3876,12 +3924,21 @@
       <c r="AK42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AL42" s="13"/>
+      <c r="AL42" s="13">
+        <v>5</v>
+      </c>
       <c r="AM42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="16"/>
+      <c r="AN42" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AU42" s="8" t="s">
         <v>43</v>
       </c>
@@ -3929,12 +3986,18 @@
       <c r="O43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="13"/>
+      <c r="P43" s="13">
+        <v>0</v>
+      </c>
       <c r="Q43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="16"/>
+      <c r="R43" s="13">
+        <v>4</v>
+      </c>
+      <c r="S43" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="X43" s="8">
         <v>3</v>
       </c>
@@ -3953,12 +4016,18 @@
       <c r="AK43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AL43" s="13"/>
+      <c r="AL43" s="13">
+        <v>4</v>
+      </c>
       <c r="AM43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="16"/>
+      <c r="AN43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="AU43" s="8" t="s">
         <v>44</v>
       </c>
@@ -4053,19 +4122,21 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="33"/>
+      <c r="N45" s="33">
+        <v>45792</v>
+      </c>
       <c r="O45" s="12" t="s">
         <v>21</v>
       </c>
@@ -4087,7 +4158,9 @@
       <c r="AI45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ45" s="27"/>
+      <c r="AJ45" s="27">
+        <v>45791</v>
+      </c>
       <c r="AK45" s="12" t="s">
         <v>31</v>
       </c>
@@ -4097,21 +4170,23 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N46" s="33"/>
+      <c r="N46" s="33">
+        <v>45794</v>
+      </c>
       <c r="O46" s="12" t="s">
         <v>28</v>
       </c>
@@ -4133,7 +4208,9 @@
       <c r="AI46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ46" s="27"/>
+      <c r="AJ46" s="27">
+        <v>45793</v>
+      </c>
       <c r="AK46" s="12" t="s">
         <v>35</v>
       </c>
@@ -4148,7 +4225,9 @@
       <c r="M47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N47" s="34"/>
+      <c r="N47" s="34">
+        <v>45796</v>
+      </c>
       <c r="O47" s="12" t="s">
         <v>21</v>
       </c>
@@ -4170,7 +4249,9 @@
       <c r="AI47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ47" s="28"/>
+      <c r="AJ47" s="28">
+        <v>45795</v>
+      </c>
       <c r="AK47" s="14" t="s">
         <v>31</v>
       </c>
@@ -4182,49 +4263,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4241,30 +4334,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E056823-0415-4FFE-BE67-02BB7EC32555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="96">
   <si>
     <t>Game</t>
   </si>
@@ -311,12 +310,15 @@
   </si>
   <si>
     <t>Oilers Lead 2-1</t>
+  </si>
+  <si>
+    <t>Oilers Lead 3-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -698,30 +700,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,33 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1181,18 +1183,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1221,18 +1223,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1269,14 +1271,14 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1307,10 +1309,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1329,10 +1331,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1414,28 +1416,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1445,11 +1447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="AG24" workbookViewId="0">
+      <selection activeCell="AO45" sqref="AO45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,124 +1502,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1641,15 +1643,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1979,11 +1981,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2023,11 +2025,11 @@
       </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="16"/>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2284,15 +2286,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2309,65 +2311,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2586,19 +2588,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2748,52 +2750,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2817,24 +2819,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2931,26 +2933,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3086,11 +3088,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3113,11 +3115,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3335,15 +3337,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3368,15 +3370,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3405,18 +3407,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3438,19 +3440,19 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3475,31 +3477,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3592,33 +3594,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3773,11 +3775,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3833,11 +3835,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4075,12 +4077,18 @@
       <c r="O44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="13"/>
+      <c r="P44" s="13">
+        <v>2</v>
+      </c>
       <c r="Q44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="13"/>
-      <c r="S44" s="16"/>
+      <c r="R44" s="13">
+        <v>5</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="X44" s="8">
         <v>4</v>
       </c>
@@ -4099,12 +4107,18 @@
       <c r="AK44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AL44" s="13"/>
+      <c r="AL44" s="13">
+        <v>0</v>
+      </c>
       <c r="AM44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="16"/>
+      <c r="AN44" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO44" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="AU44" s="9" t="s">
         <v>45</v>
       </c>
@@ -4122,15 +4136,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4170,15 +4184,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4263,45 +4277,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4318,125 +4352,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="97">
   <si>
     <t>Game</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Oilers Lead 3-1</t>
+  </si>
+  <si>
+    <t>Stars Lead 3-1</t>
   </si>
 </sst>
 </file>
@@ -700,18 +703,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,39 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1049,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,8 +1097,12 @@
       <c r="D2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -1111,7 +1118,9 @@
         <v>30</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1183,18 +1192,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1223,18 +1232,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1250,8 +1259,12 @@
       <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1268,17 +1281,19 @@
         <v>30</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1309,10 +1324,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1331,10 +1346,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1416,16 +1431,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
@@ -1450,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG24" workbookViewId="0">
-      <selection activeCell="AO45" sqref="AO45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,124 +1517,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1643,15 +1658,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1981,11 +1996,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2019,17 +2034,23 @@
       <c r="AK8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AL8" s="31"/>
+      <c r="AL8" s="31">
+        <v>1</v>
+      </c>
       <c r="AM8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="16"/>
-      <c r="AQ8" s="57" t="s">
+      <c r="AN8" s="31">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2286,15 +2307,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2311,65 +2332,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2588,19 +2611,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2750,52 +2773,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2819,24 +2842,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2933,26 +2956,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3088,11 +3111,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3115,11 +3138,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3337,15 +3360,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3370,15 +3393,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3407,18 +3430,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3440,19 +3465,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AN36" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3477,31 +3504,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3594,33 +3621,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3775,11 +3802,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3835,11 +3862,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4136,15 +4163,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4184,15 +4211,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4277,49 +4304,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4336,30 +4375,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E7DCD-E1F9-4F1C-A636-34038D5F0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="98">
   <si>
     <t>Game</t>
   </si>
@@ -316,12 +317,15 @@
   </si>
   <si>
     <t>Stars Lead 3-1</t>
+  </si>
+  <si>
+    <t>Panthers Lead 3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -703,30 +707,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,33 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1192,18 +1196,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1232,18 +1236,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1286,14 +1290,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1324,10 +1328,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1346,10 +1350,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1431,28 +1435,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1462,11 +1466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36:N36"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,124 +1521,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1658,15 +1662,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1996,11 +2000,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2046,11 +2050,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2189,12 +2193,18 @@
       <c r="O10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13">
+        <v>6</v>
+      </c>
       <c r="Q10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="16"/>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="AI10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2307,15 +2317,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2332,67 +2342,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2611,19 +2621,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2773,52 +2783,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2842,24 +2852,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2956,26 +2966,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3111,11 +3121,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3138,11 +3148,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3360,15 +3370,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3393,15 +3403,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3430,20 +3440,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3465,21 +3475,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51" t="s">
+      <c r="AN36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3504,31 +3514,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3621,33 +3631,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3802,11 +3812,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3862,11 +3872,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4163,15 +4173,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4211,15 +4221,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4304,45 +4314,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4359,125 +4389,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E7DCD-E1F9-4F1C-A636-34038D5F0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="99">
   <si>
     <t>Game</t>
   </si>
@@ -320,12 +319,15 @@
   </si>
   <si>
     <t>Panthers Lead 3-2</t>
+  </si>
+  <si>
+    <t>Oilers Win Series 4-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -707,18 +709,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,39 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1123,9 @@
       <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1196,18 +1200,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1236,18 +1240,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1284,20 +1288,22 @@
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1328,10 +1334,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1350,10 +1356,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1435,28 +1441,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1466,11 +1472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="AF19" workbookViewId="0">
+      <selection activeCell="AP45" sqref="AP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,124 +1527,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1662,15 +1668,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2000,11 +2006,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2050,11 +2056,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2317,15 +2323,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2342,67 +2348,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2621,19 +2627,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2783,52 +2789,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2852,24 +2858,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2966,26 +2972,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3121,11 +3127,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3148,11 +3154,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3370,15 +3376,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3403,15 +3409,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3440,20 +3446,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3475,21 +3481,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61" t="s">
+      <c r="AN36" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3514,31 +3520,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3631,33 +3637,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3812,11 +3818,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3872,11 +3878,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4173,15 +4179,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4215,21 +4221,30 @@
       <c r="AK45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AL45" s="13"/>
+      <c r="AL45" s="13">
+        <v>1</v>
+      </c>
       <c r="AM45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="16"/>
-      <c r="AU45" s="56" t="s">
+      <c r="AN45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4314,49 +4329,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4373,121 +4400,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941B2E4-0F79-4E9E-8851-27DA508A51B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="99">
   <si>
     <t>Game</t>
   </si>
@@ -327,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -709,30 +710,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,33 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1200,18 +1201,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1240,18 +1241,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1296,14 +1297,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1334,10 +1335,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1356,10 +1357,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1441,28 +1442,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1472,11 +1473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF19" workbookViewId="0">
-      <selection activeCell="AP45" sqref="AP45"/>
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,124 +1528,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1668,15 +1669,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2006,11 +2007,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2056,11 +2057,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2323,15 +2324,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2348,67 +2349,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2627,19 +2628,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2789,52 +2790,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2858,24 +2859,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2972,26 +2973,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3127,11 +3128,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3154,11 +3155,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3376,15 +3377,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3409,15 +3410,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3446,20 +3447,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3481,21 +3482,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51" t="s">
+      <c r="AN36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3520,31 +3521,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3637,33 +3638,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3818,11 +3819,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3878,11 +3879,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4179,15 +4180,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4197,12 +4198,18 @@
       <c r="O45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P45" s="13"/>
+      <c r="P45" s="13">
+        <v>3</v>
+      </c>
       <c r="Q45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="S45" s="16"/>
+      <c r="R45" s="13">
+        <v>1</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="X45" s="8" t="s">
         <v>9</v>
       </c>
@@ -4236,15 +4243,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4329,45 +4336,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4384,125 +4411,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941B2E4-0F79-4E9E-8851-27DA508A51B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="99">
   <si>
     <t>Game</t>
   </si>
@@ -328,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -710,18 +709,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,39 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1201,18 +1200,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1241,18 +1240,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,14 +1296,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1335,10 +1334,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1357,10 +1356,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1442,28 +1441,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1473,11 +1472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF19" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,124 +1527,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1669,15 +1668,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2007,11 +2006,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2057,11 +2056,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2137,12 +2136,18 @@
       <c r="AK9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AL9" s="13"/>
+      <c r="AL9" s="13">
+        <v>0</v>
+      </c>
       <c r="AM9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="16"/>
+      <c r="AN9" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
@@ -2324,15 +2329,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2349,67 +2354,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2628,19 +2633,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2790,52 +2795,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2859,24 +2864,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2973,26 +2978,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3128,11 +3133,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3155,11 +3160,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3377,15 +3382,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3410,15 +3415,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3447,20 +3452,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3482,21 +3487,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61" t="s">
+      <c r="AN36" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3521,31 +3526,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3638,33 +3643,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3819,11 +3824,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3879,11 +3884,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4180,15 +4185,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4243,15 +4248,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4336,49 +4341,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4395,121 +4412,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024_2025\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59164C1-9F5B-4360-862F-39B9A701F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="99">
   <si>
     <t>Game</t>
   </si>
@@ -327,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -709,30 +710,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,33 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1200,18 +1201,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1240,18 +1241,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1296,14 +1297,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1334,10 +1335,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1356,10 +1357,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1441,28 +1442,28 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B14 B16:B17 B19:B20 B22:B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$2:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1472,11 +1473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,124 +1528,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1668,15 +1669,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2006,11 +2007,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2056,11 +2057,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2281,12 +2282,18 @@
       <c r="O11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13">
+        <v>2</v>
+      </c>
       <c r="Q11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="16"/>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="AI11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2329,15 +2336,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2354,67 +2361,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2633,19 +2640,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2795,52 +2802,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2864,24 +2871,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2978,26 +2985,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3133,11 +3140,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3160,11 +3167,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3382,15 +3389,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3415,15 +3422,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3452,20 +3459,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3487,21 +3494,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51" t="s">
+      <c r="AN36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3526,31 +3533,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3643,33 +3650,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3824,11 +3831,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3884,11 +3891,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4185,15 +4192,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4248,15 +4255,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4341,45 +4348,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4396,125 +4423,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$13:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>I8:K8 C5:C11 E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$19:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>I30:K30 E27:E33 C27:C33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$22:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 I41:K41 E38:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$16:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$13:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 O6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$16:$C$17</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 O41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$13:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 R30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$13:$F$14</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AH30:AH36 AJ30:AJ36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$12:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 AB41:AB47 Z41:Z47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$13:$B$14</xm:f>
           </x14:formula1>
           <xm:sqref>AQ8:AS8 AY5:AY11 AW5:AW11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$19:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>AQ30:AS30 AY27:AY33 AW27:AW33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$22:$B$23</xm:f>
           </x14:formula1>
           <xm:sqref>AQ41:AS41 AY38:AY44 AW38:AW44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$16:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$13:$D$14</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AM5:AM11 AK5:AK11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$16:$D$17</xm:f>
           </x14:formula1>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59164C1-9F5B-4360-862F-39B9A701F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED22915-8804-412C-9109-E470DECE10C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="100">
   <si>
     <t>Game</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Oilers Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Stars Win Series 4-2</t>
   </si>
 </sst>
 </file>
@@ -710,18 +713,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,39 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,18 +1204,18 @@
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1241,18 +1244,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,14 +1300,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1335,10 +1338,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1357,10 +1360,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1442,16 +1445,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1476,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" topLeftCell="AA16" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,124 +1531,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1669,15 +1672,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2007,11 +2010,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2057,11 +2060,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2227,12 +2230,21 @@
       <c r="AK10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL10" s="13"/>
+      <c r="AL10" s="13">
+        <v>1</v>
+      </c>
       <c r="AM10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="16"/>
+      <c r="AN10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AQ10" s="12"/>
       <c r="AU10" s="8" t="s">
         <v>44</v>
@@ -2336,15 +2348,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2361,67 +2373,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2640,19 +2652,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2802,52 +2814,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2871,24 +2883,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2985,26 +2997,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3140,11 +3152,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3167,11 +3179,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3389,15 +3401,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3422,15 +3434,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3459,20 +3471,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3494,21 +3506,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61" t="s">
+      <c r="AN36" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3533,31 +3545,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3650,33 +3662,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3831,11 +3843,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3891,11 +3903,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4192,15 +4204,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4255,15 +4267,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4348,49 +4360,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4407,30 +4431,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED22915-8804-412C-9109-E470DECE10C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC46A3-8C86-448F-B9FE-613EF246C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="101">
   <si>
     <t>Game</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Stars Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Panthers Win Series 4-3</t>
   </si>
 </sst>
 </file>
@@ -701,9 +704,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,30 +713,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,31 +776,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,22 +1078,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1198,24 +1201,24 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1244,18 +1247,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,14 +1303,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1338,10 +1341,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1360,10 +1363,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1445,16 +1448,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1479,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA16" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,70 +1588,70 @@
       <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="M2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="AI2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="63"/>
+      <c r="AU2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="63"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="AI3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1672,15 +1675,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2010,11 +2013,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2060,11 +2063,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2348,15 +2351,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2367,73 +2370,81 @@
       <c r="O12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="13">
+        <v>6</v>
+      </c>
       <c r="Q12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="16"/>
-      <c r="AI12" s="49" t="s">
+      <c r="R12" s="13">
+        <v>1</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="L14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="AN14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2652,19 +2663,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2814,52 +2825,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2883,24 +2894,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="64"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -2997,26 +3008,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3152,19 +3163,25 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="23"/>
+      <c r="Q30" s="39">
+        <v>45797</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="S30" s="24"/>
-      <c r="T30" s="23"/>
+      <c r="T30" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="U30" s="24"/>
       <c r="V30" s="25"/>
       <c r="X30" s="12"/>
@@ -3172,18 +3189,24 @@
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="23"/>
+      <c r="AG30" s="29">
+        <v>45798</v>
+      </c>
+      <c r="AH30" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="AI30" s="24"/>
-      <c r="AJ30" s="23"/>
+      <c r="AJ30" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3205,7 +3228,7 @@
       <c r="BA30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="BB30" s="42" t="s">
+      <c r="BB30" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3236,10 +3259,16 @@
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="12"/>
+      <c r="Q31" s="40">
+        <v>45799</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="S31" s="13"/>
-      <c r="T31" s="12"/>
+      <c r="T31" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="U31" s="13"/>
       <c r="V31" s="16"/>
       <c r="X31" s="12"/>
@@ -3247,10 +3276,16 @@
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="12"/>
+      <c r="AG31" s="27">
+        <v>45800</v>
+      </c>
+      <c r="AH31" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AI31" s="13"/>
-      <c r="AJ31" s="12"/>
+      <c r="AJ31" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AK31" s="13"/>
       <c r="AL31" s="16"/>
       <c r="AN31" s="12"/>
@@ -3303,10 +3338,16 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="12"/>
+      <c r="Q32" s="40">
+        <v>45801</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="S32" s="13"/>
-      <c r="T32" s="12"/>
+      <c r="T32" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="U32" s="13"/>
       <c r="V32" s="16"/>
       <c r="X32" s="12"/>
@@ -3314,10 +3355,16 @@
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="12"/>
+      <c r="AG32" s="27">
+        <v>45802</v>
+      </c>
+      <c r="AH32" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="12"/>
+      <c r="AJ32" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AK32" s="13"/>
       <c r="AL32" s="16"/>
       <c r="AN32" s="12"/>
@@ -3365,10 +3412,16 @@
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="12"/>
+      <c r="Q33" s="40">
+        <v>45803</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="S33" s="13"/>
-      <c r="T33" s="12"/>
+      <c r="T33" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="U33" s="13"/>
       <c r="V33" s="16"/>
       <c r="X33" s="12"/>
@@ -3376,10 +3429,16 @@
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="12"/>
+      <c r="AG33" s="33">
+        <v>45804</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AI33" s="13"/>
-      <c r="AJ33" s="12"/>
+      <c r="AJ33" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AK33" s="13"/>
       <c r="AL33" s="16"/>
       <c r="AN33" s="12"/>
@@ -3401,24 +3460,30 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="12"/>
+      <c r="Q34" s="40">
+        <v>45805</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="S34" s="13"/>
-      <c r="T34" s="12"/>
+      <c r="T34" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="U34" s="13"/>
       <c r="V34" s="16"/>
       <c r="X34" s="12"/>
@@ -3426,23 +3491,29 @@
       <c r="AF34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="12"/>
+      <c r="AG34" s="27">
+        <v>45806</v>
+      </c>
+      <c r="AH34" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="12"/>
+      <c r="AJ34" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AK34" s="13"/>
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="55"/>
+      <c r="AZ34" s="55"/>
+      <c r="BA34" s="55"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3450,10 +3521,16 @@
       <c r="P35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="12"/>
+      <c r="Q35" s="40">
+        <v>45807</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="S35" s="13"/>
-      <c r="T35" s="12"/>
+      <c r="T35" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="U35" s="13"/>
       <c r="V35" s="16"/>
       <c r="X35" s="12"/>
@@ -3461,66 +3538,84 @@
       <c r="AF35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="12"/>
+      <c r="AG35" s="27">
+        <v>45808</v>
+      </c>
+      <c r="AH35" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="AI35" s="13"/>
-      <c r="AJ35" s="12"/>
+      <c r="AJ35" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AK35" s="13"/>
       <c r="AL35" s="16"/>
       <c r="AN35" s="12"/>
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="L36" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="16"/>
+      <c r="Q36" s="65">
+        <v>45809</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="31"/>
+      <c r="T36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="31"/>
+      <c r="V36" s="32"/>
       <c r="X36" s="12"/>
       <c r="AD36" s="13"/>
       <c r="AF36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="35"/>
+      <c r="AG36" s="34">
+        <v>45810</v>
+      </c>
+      <c r="AH36" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="AI36" s="36"/>
-      <c r="AJ36" s="35"/>
+      <c r="AJ36" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51" t="s">
+      <c r="AN36" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="54"/>
+      <c r="AW36" s="54"/>
+      <c r="AX36" s="54"/>
+      <c r="AY36" s="54"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="54"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3545,31 +3640,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="53"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="64"/>
+      <c r="AF37" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3662,33 +3757,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="50"/>
+      <c r="X39" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AI39" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3843,11 +3938,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3903,11 +3998,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3929,7 +4024,7 @@
       <c r="BA41" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="BB41" s="42" t="s">
+      <c r="BB41" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4204,15 +4299,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4267,15 +4362,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="55"/>
+      <c r="AX45" s="55"/>
+      <c r="AY45" s="55"/>
+      <c r="AZ45" s="55"/>
+      <c r="BA45" s="55"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4360,45 +4455,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="50"/>
+      <c r="X48" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AI48" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="55"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4415,34 +4530,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC46A3-8C86-448F-B9FE-613EF246C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31554E50-3C1C-4DB0-B48B-8908FE452186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="101">
   <si>
     <t>Game</t>
   </si>
@@ -713,18 +713,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,42 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,18 +1207,18 @@
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1247,18 +1247,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,14 +1303,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1363,10 +1363,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1448,16 +1448,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,70 +1588,70 @@
       <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="M2" s="61" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="AI2" s="61" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="63"/>
-      <c r="AU2" s="61" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="63"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="AI3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="55" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1675,15 +1675,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2063,11 +2063,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="56" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2351,15 +2351,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2382,69 +2382,69 @@
       <c r="S12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AI12" s="55" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="55" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="L14" s="60" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="AN14" s="56" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="54" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2663,19 +2663,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="60" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2825,52 +2825,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="55" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="55"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="55" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="55"/>
-      <c r="AW25" s="55"/>
-      <c r="AX25" s="55"/>
-      <c r="AY25" s="55"/>
-      <c r="AZ25" s="55"/>
-      <c r="BA25" s="55"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2894,24 +2894,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="60"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="64"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -3008,26 +3008,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="48" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="50"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="55" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3163,11 +3163,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3178,12 +3178,18 @@
       <c r="R30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="S30" s="24"/>
+      <c r="S30" s="24">
+        <v>5</v>
+      </c>
       <c r="T30" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
+      <c r="U30" s="24">
+        <v>2</v>
+      </c>
+      <c r="V30" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="X30" s="12"/>
       <c r="AD30" s="13"/>
       <c r="AF30" s="7">
@@ -3202,11 +3208,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="56" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3460,15 +3466,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3505,15 +3511,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="55" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="55"/>
-      <c r="AW34" s="55"/>
-      <c r="AX34" s="55"/>
-      <c r="AY34" s="55"/>
-      <c r="AZ34" s="55"/>
-      <c r="BA34" s="55"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3554,25 +3560,25 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="L36" s="60" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q36" s="65">
+      <c r="Q36" s="44">
         <v>45809</v>
       </c>
       <c r="R36" s="30" t="s">
@@ -3601,21 +3607,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="60" t="s">
+      <c r="AN36" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="54" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="54"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="54"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3640,31 +3646,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="53"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="64"/>
-      <c r="AF37" s="55" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3757,33 +3763,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="48" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="50"/>
-      <c r="X39" s="55" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AI39" s="48" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3938,11 +3944,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3998,11 +4004,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="60" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="56"/>
-      <c r="AS41" s="56"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4299,15 +4305,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4362,15 +4368,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="55" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="55"/>
-      <c r="AW45" s="55"/>
-      <c r="AX45" s="55"/>
-      <c r="AY45" s="55"/>
-      <c r="AZ45" s="55"/>
-      <c r="BA45" s="55"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4455,49 +4461,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="48" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="50"/>
-      <c r="X48" s="55" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AI48" s="55" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="55"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4514,30 +4532,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31554E50-3C1C-4DB0-B48B-8908FE452186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF71467-A182-4068-AECA-993CC1D88F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="101">
   <si>
     <t>Game</t>
   </si>
@@ -716,30 +716,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,33 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,18 +1207,18 @@
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1247,18 +1247,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,14 +1303,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1363,10 +1363,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1448,16 +1448,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -1534,124 +1534,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1675,15 +1675,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2063,11 +2063,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2351,15 +2351,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2382,69 +2382,69 @@
       <c r="S12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="AN14" s="50" t="s">
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="AN14" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="52" t="s">
+      <c r="AU14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2663,19 +2663,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="51" t="s">
+      <c r="AQ19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2825,52 +2825,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="49" t="s">
+      <c r="AU23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="49" t="s">
+      <c r="AU25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2894,24 +2894,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="56"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="65"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -3008,26 +3008,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="49" t="s">
+      <c r="AF28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3163,11 +3163,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3201,18 +3201,24 @@
       <c r="AH30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AI30" s="24"/>
+      <c r="AI30" s="24">
+        <v>3</v>
+      </c>
       <c r="AJ30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="25"/>
+      <c r="AK30" s="24">
+        <v>6</v>
+      </c>
+      <c r="AL30" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="50" t="s">
+      <c r="AQ30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3466,15 +3472,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3511,15 +3517,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="49" t="s">
+      <c r="AU34" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3560,20 +3566,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="L36" s="51" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3607,21 +3613,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="51" t="s">
+      <c r="AN36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="52" t="s">
+      <c r="AU36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3646,31 +3652,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="56"/>
-      <c r="AF37" s="49" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="65"/>
+      <c r="AF37" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3763,33 +3769,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="X39" s="49" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="51"/>
+      <c r="X39" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AI39" s="60" t="s">
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AI39" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3944,11 +3950,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -4004,11 +4010,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="51" t="s">
+      <c r="AQ41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
+      <c r="AR41" s="57"/>
+      <c r="AS41" s="57"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4305,15 +4311,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4368,15 +4374,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="49" t="s">
+      <c r="AU45" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="49"/>
-      <c r="AW45" s="49"/>
-      <c r="AX45" s="49"/>
-      <c r="AY45" s="49"/>
-      <c r="AZ45" s="49"/>
-      <c r="BA45" s="49"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4461,45 +4467,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="62"/>
-      <c r="X48" s="49" t="s">
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="51"/>
+      <c r="X48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AI48" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4516,34 +4542,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF71467-A182-4068-AECA-993CC1D88F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3722F-28A6-4285-8902-354522D27955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="101">
   <si>
     <t>Game</t>
   </si>
@@ -716,18 +716,51 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,39 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,18 +1207,18 @@
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1247,18 +1247,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,14 +1303,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1363,10 +1363,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1448,16 +1448,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="V13" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,124 +1534,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="Z1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+      <c r="Z1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="60"/>
-      <c r="AF1" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AF1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="59"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="M2" s="62" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="AI2" s="62" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AU2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="AI3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="AI3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="56" t="s">
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AU3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1675,15 +1675,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2063,11 +2063,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="57" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2351,15 +2351,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2382,69 +2382,69 @@
       <c r="S12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AI12" s="56" t="s">
+      <c r="AI12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="56" t="s">
+      <c r="AU12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="L14" s="61" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="L14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="AN14" s="57" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="AN14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="55" t="s">
+      <c r="AU14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2663,19 +2663,19 @@
       <c r="G19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="61" t="s">
+      <c r="AQ19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2825,52 +2825,52 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="56" t="s">
+      <c r="AU23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="56" t="s">
+      <c r="AU25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2894,24 +2894,24 @@
       <c r="G26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="65"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="56"/>
       <c r="AU26" s="20" t="s">
         <v>0</v>
       </c>
@@ -3008,26 +3008,26 @@
         <v>61</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="51"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="56" t="s">
+      <c r="AF28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3163,11 +3163,11 @@
       <c r="G30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3214,11 +3214,11 @@
         <v>91</v>
       </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="57" t="s">
+      <c r="AQ30" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3277,12 +3277,18 @@
       <c r="R31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S31" s="13"/>
+      <c r="S31" s="13">
+        <v>5</v>
+      </c>
       <c r="T31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="16"/>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="X31" s="12"/>
       <c r="AD31" s="13"/>
       <c r="AF31" s="8">
@@ -3472,15 +3478,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3517,15 +3523,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="56" t="s">
+      <c r="AU34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3566,20 +3572,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="L36" s="61" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="L36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="12"/>
       <c r="P36" s="9" t="s">
         <v>45</v>
@@ -3613,21 +3619,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="61" t="s">
+      <c r="AN36" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="55" t="s">
+      <c r="AU36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AV36" s="55"/>
-      <c r="AW36" s="55"/>
-      <c r="AX36" s="55"/>
-      <c r="AY36" s="55"/>
-      <c r="AZ36" s="55"/>
-      <c r="BA36" s="55"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52"/>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="52"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3652,31 +3658,31 @@
         <v>7</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="65"/>
-      <c r="AF37" s="56" t="s">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="56"/>
+      <c r="AF37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>0</v>
@@ -3769,33 +3775,33 @@
         <v>58</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49" t="s">
+      <c r="M39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="X39" s="56" t="s">
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="X39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AI39" s="49" t="s">
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AI39" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="62"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3950,11 +3956,11 @@
       <c r="G41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -4010,11 +4016,11 @@
       <c r="AO41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AQ41" s="61" t="s">
+      <c r="AQ41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR41" s="57"/>
-      <c r="AS41" s="57"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4311,15 +4317,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
       <c r="M45" s="8" t="s">
         <v>43</v>
       </c>
@@ -4374,15 +4380,15 @@
       <c r="AP45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="56" t="s">
+      <c r="AU45" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AV45" s="56"/>
-      <c r="AW45" s="56"/>
-      <c r="AX45" s="56"/>
-      <c r="AY45" s="56"/>
-      <c r="AZ45" s="56"/>
-      <c r="BA45" s="56"/>
+      <c r="AV45" s="49"/>
+      <c r="AW45" s="49"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="49"/>
+      <c r="AZ45" s="49"/>
+      <c r="BA45" s="49"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4467,49 +4473,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="49" t="s">
+      <c r="M48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="X48" s="56" t="s">
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="X48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AI48" s="56" t="s">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AI48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
+      <c r="AJ48" s="49"/>
+      <c r="AK48" s="49"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4526,30 +4544,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024_2025/Playoffs/Brackets.xlsx
+++ b/2024_2025/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3722F-28A6-4285-8902-354522D27955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE7F1C-292F-4AFE-8E44-0304801E00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
   <si>
     <t>Game</t>
   </si>
@@ -716,30 +716,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,33 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,18 +1207,18 @@
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1247,18 +1247,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,14 +1303,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1363,10 +1363,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1448,16 +1448,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A14 A16:A17 A19:A20 A22:A23" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V13" workbookViewId="0">
-      <selection activeCell="AI31" sqref="AI31"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,124 +1534,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="Z1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
-      <c r="AF1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60"/>
+      <c r="AF1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="AI2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AU2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="64"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="AI3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="AI3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AU3" s="49" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1675,15 +1675,15 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
       <c r="AI4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -2063,11 +2063,11 @@
       <c r="AO8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AQ8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2351,15 +2351,15 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="L12" s="12"/>
       <c r="M12" s="9" t="s">
         <v>45</v>
@@ -2382,69 +2382,69 @@
       <c r="S12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="49" t="s">
+      <c r="AU12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="L14" s="51" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-     